--- a/7. Reference/Noi Dung Cong Viec 23.11/Huy Ngo/Master Design PLan.xlsx
+++ b/7. Reference/Noi Dung Cong Viec 23.11/Huy Ngo/Master Design PLan.xlsx
@@ -13,14 +13,14 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'main filter'!$B$4:$B$9</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Master design plan'!$E$2:$O$47</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Master design plan'!$E$2:$P$54</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="65">
   <si>
     <t>TIME</t>
   </si>
@@ -28,9 +28,6 @@
     <t>Documents</t>
   </si>
   <si>
-    <t>meeting with customer</t>
-  </si>
-  <si>
     <t>Activities</t>
   </si>
   <si>
@@ -161,6 +158,66 @@
   </si>
   <si>
     <t>Ngo Quang Huy</t>
+  </si>
+  <si>
+    <t>MAIN RESPONSIBLE</t>
+  </si>
+  <si>
+    <t>Operation Requirement Document</t>
+  </si>
+  <si>
+    <t>Huynh Trong Khang</t>
+  </si>
+  <si>
+    <t>Discover Architectural Drivers.</t>
+  </si>
+  <si>
+    <t>meeting with customer #1</t>
+  </si>
+  <si>
+    <t>Review with mentor #1</t>
+  </si>
+  <si>
+    <t>Meeting with customer #2.</t>
+  </si>
+  <si>
+    <t>Meeting with mentor #2.</t>
+  </si>
+  <si>
+    <t>Review with customer #3.</t>
+  </si>
+  <si>
+    <t>Review Operation Requirement Document.</t>
+  </si>
+  <si>
+    <t>Establish Project Scope.</t>
+  </si>
+  <si>
+    <t>Team</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Architecture Drivers Specification </t>
+  </si>
+  <si>
+    <t>Product Backlog Document.</t>
+  </si>
+  <si>
+    <t>Define entities
+Draw use-case model
+Create use-case description
+Create quality attribute scenario.</t>
+  </si>
+  <si>
+    <t>Meeting with customer #1</t>
+  </si>
+  <si>
+    <t>Review with mentor #2</t>
+  </si>
+  <si>
+    <t>Review customer, mentor &amp; closed architecture drivers specification &amp; product backlog document.</t>
+  </si>
+  <si>
+    <t>update plan</t>
   </si>
 </sst>
 </file>
@@ -168,7 +225,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt numFmtId="166" formatCode="0.0"/>
+    <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
   <fonts count="10" x14ac:knownFonts="1">
     <font>
@@ -239,7 +296,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -294,6 +351,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="24">
     <border>
@@ -576,45 +639,62 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="66">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="16" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="9" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -633,6 +713,15 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -651,57 +740,85 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="justify"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="9" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1012,8 +1129,8 @@
   </sheetPr>
   <dimension ref="B3:G20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1027,138 +1144,148 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="31" t="s">
+      <c r="B3" s="6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="4" spans="2:4" ht="39" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="7" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="4" spans="2:4" ht="39" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="32" t="s">
+      <c r="C4" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="C4" s="32" t="s">
+      <c r="D4" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="D4" s="33" t="s">
+    </row>
+    <row r="5" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="9"/>
+      <c r="C5" s="9"/>
+      <c r="D5" s="10"/>
+    </row>
+    <row r="6" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="9"/>
+      <c r="C6" s="9"/>
+      <c r="D6" s="10"/>
+    </row>
+    <row r="7" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="9"/>
+      <c r="C7" s="9"/>
+      <c r="D7" s="10"/>
+    </row>
+    <row r="8" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="18" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="5" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="34"/>
-      <c r="C5" s="34"/>
-      <c r="D5" s="35"/>
-    </row>
-    <row r="6" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="34"/>
-      <c r="C6" s="34"/>
-      <c r="D6" s="35"/>
-    </row>
-    <row r="7" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="34"/>
-      <c r="C7" s="34"/>
-      <c r="D7" s="35"/>
-    </row>
-    <row r="8" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="36" t="s">
+      <c r="C8" s="19"/>
+      <c r="D8" s="20"/>
+    </row>
+    <row r="9" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B9" s="11"/>
+    </row>
+    <row r="10" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B10" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="C8" s="37"/>
-      <c r="D8" s="38"/>
-    </row>
-    <row r="9" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B9" s="39"/>
-    </row>
-    <row r="10" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B10" s="31" t="s">
+    </row>
+    <row r="11" spans="2:4" ht="39" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="7" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="11" spans="2:4" ht="39" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="32" t="s">
+      <c r="C11" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="C11" s="32" t="s">
+      <c r="D11" s="8" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="12" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="9"/>
+      <c r="C12" s="9"/>
+      <c r="D12" s="10"/>
+    </row>
+    <row r="13" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="9"/>
+      <c r="C13" s="9"/>
+      <c r="D13" s="10"/>
+    </row>
+    <row r="14" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B14" s="9"/>
+      <c r="C14" s="9"/>
+      <c r="D14" s="10"/>
+    </row>
+    <row r="15" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B15" s="11"/>
+    </row>
+    <row r="16" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B16" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="D11" s="33" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="12" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="34"/>
-      <c r="C12" s="34"/>
-      <c r="D12" s="35"/>
-    </row>
-    <row r="13" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="34"/>
-      <c r="C13" s="34"/>
-      <c r="D13" s="35"/>
-    </row>
-    <row r="14" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="34"/>
-      <c r="C14" s="34"/>
-      <c r="D14" s="35"/>
-    </row>
-    <row r="15" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B15" s="39"/>
-    </row>
-    <row r="16" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B16" s="31" t="s">
+    </row>
+    <row r="17" spans="2:7" ht="39" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B17" s="7" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="17" spans="2:7" ht="39" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="32" t="s">
+      <c r="C17" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="C17" s="33" t="s">
+      <c r="D17" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="D17" s="40" t="s">
+      <c r="E17" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="E17" s="32" t="s">
+      <c r="F17" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="F17" s="32" t="s">
+      <c r="G17" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="G17" s="41" t="s">
+    </row>
+    <row r="18" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B18" s="14" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="18" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="42" t="s">
+      <c r="C18" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="C18" s="35" t="s">
+      <c r="D18" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="D18" s="43" t="s">
+      <c r="E18" s="9"/>
+      <c r="F18" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="E18" s="34"/>
-      <c r="F18" s="34" t="s">
-        <v>46</v>
-      </c>
-      <c r="G18" s="44">
+      <c r="G18" s="16">
         <v>1</v>
       </c>
     </row>
     <row r="19" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="42"/>
-      <c r="C19" s="35"/>
-      <c r="D19" s="43"/>
-      <c r="E19" s="34"/>
-      <c r="F19" s="34"/>
-      <c r="G19" s="44"/>
+      <c r="B19" s="17">
+        <v>41317</v>
+      </c>
+      <c r="C19" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="D19" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="E19" s="9"/>
+      <c r="F19" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="G19" s="16">
+        <v>2</v>
+      </c>
     </row>
     <row r="20" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="45"/>
-      <c r="C20" s="35"/>
-      <c r="D20" s="43"/>
-      <c r="E20" s="34"/>
-      <c r="F20" s="34"/>
-      <c r="G20" s="44"/>
+      <c r="B20" s="17"/>
+      <c r="C20" s="10"/>
+      <c r="D20" s="15"/>
+      <c r="E20" s="9"/>
+      <c r="F20" s="9"/>
+      <c r="G20" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1173,10 +1300,10 @@
   <sheetPr>
     <tabColor theme="5" tint="-0.249977111117893"/>
   </sheetPr>
-  <dimension ref="E2:O47"/>
+  <dimension ref="E2:P54"/>
   <sheetViews>
-    <sheetView topLeftCell="D28" workbookViewId="0">
-      <selection activeCell="H49" sqref="H49"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1185,728 +1312,932 @@
     <col min="5" max="5" width="11.85546875" style="1" customWidth="1"/>
     <col min="6" max="6" width="12.42578125" style="1" customWidth="1"/>
     <col min="7" max="7" width="36.28515625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="25" style="1" customWidth="1"/>
-    <col min="9" max="9" width="13.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="11.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="12.85546875" style="1" customWidth="1"/>
-    <col min="12" max="12" width="12.5703125" style="1" customWidth="1"/>
-    <col min="13" max="13" width="11.85546875" style="1" customWidth="1"/>
-    <col min="14" max="14" width="12.7109375" style="1" customWidth="1"/>
-    <col min="15" max="15" width="14.140625" style="1" customWidth="1"/>
-    <col min="16" max="16384" width="9.140625" style="1"/>
+    <col min="8" max="9" width="25" style="1" customWidth="1"/>
+    <col min="10" max="10" width="13.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="11.7109375" style="1" customWidth="1"/>
+    <col min="12" max="12" width="12.85546875" style="1" customWidth="1"/>
+    <col min="13" max="13" width="12.5703125" style="1" customWidth="1"/>
+    <col min="14" max="14" width="11.85546875" style="1" customWidth="1"/>
+    <col min="15" max="15" width="12.7109375" style="1" customWidth="1"/>
+    <col min="16" max="16" width="14.140625" style="1" customWidth="1"/>
+    <col min="17" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="5:15" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E2" s="16" t="s">
+    <row r="2" spans="5:16" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E2" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" s="22"/>
+      <c r="G2" s="22"/>
+      <c r="H2" s="22"/>
+      <c r="I2" s="22"/>
+      <c r="J2" s="22"/>
+      <c r="K2" s="22"/>
+      <c r="L2" s="22"/>
+      <c r="M2" s="22"/>
+      <c r="N2" s="22"/>
+      <c r="O2" s="22"/>
+      <c r="P2" s="23"/>
+    </row>
+    <row r="3" spans="5:16" x14ac:dyDescent="0.25">
+      <c r="E3" s="30" t="s">
+        <v>18</v>
+      </c>
+      <c r="F3" s="31"/>
+      <c r="G3" s="31"/>
+      <c r="H3" s="27" t="s">
+        <v>19</v>
+      </c>
+      <c r="I3" s="45" t="s">
+        <v>46</v>
+      </c>
+      <c r="J3" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="K3" s="25"/>
+      <c r="L3" s="25"/>
+      <c r="M3" s="25"/>
+      <c r="N3" s="25"/>
+      <c r="O3" s="25"/>
+      <c r="P3" s="26"/>
+    </row>
+    <row r="4" spans="5:16" x14ac:dyDescent="0.25">
+      <c r="E4" s="32"/>
+      <c r="F4" s="33"/>
+      <c r="G4" s="33"/>
+      <c r="H4" s="28"/>
+      <c r="I4" s="46"/>
+      <c r="J4" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="17"/>
-      <c r="G2" s="17"/>
-      <c r="H2" s="17"/>
-      <c r="I2" s="17"/>
-      <c r="J2" s="17"/>
-      <c r="K2" s="17"/>
-      <c r="L2" s="17"/>
-      <c r="M2" s="17"/>
-      <c r="N2" s="17"/>
-      <c r="O2" s="18"/>
-    </row>
-    <row r="3" spans="5:15" x14ac:dyDescent="0.25">
-      <c r="E3" s="22" t="s">
-        <v>19</v>
-      </c>
-      <c r="F3" s="23"/>
-      <c r="G3" s="23"/>
-      <c r="H3" s="28" t="s">
-        <v>20</v>
-      </c>
-      <c r="I3" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="J3" s="20"/>
-      <c r="K3" s="20"/>
-      <c r="L3" s="20"/>
-      <c r="M3" s="20"/>
-      <c r="N3" s="20"/>
-      <c r="O3" s="21"/>
-    </row>
-    <row r="4" spans="5:15" x14ac:dyDescent="0.25">
-      <c r="E4" s="24"/>
-      <c r="F4" s="25"/>
-      <c r="G4" s="25"/>
-      <c r="H4" s="29"/>
-      <c r="I4" s="15" t="s">
+      <c r="K4" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="J4" s="15" t="s">
+      <c r="L4" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="K4" s="15" t="s">
+      <c r="M4" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="L4" s="15" t="s">
+      <c r="N4" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="M4" s="15" t="s">
+      <c r="O4" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="N4" s="15" t="s">
+      <c r="P4" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="O4" s="15" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="5" spans="5:15" x14ac:dyDescent="0.25">
-      <c r="E5" s="26"/>
-      <c r="F5" s="27"/>
-      <c r="G5" s="27"/>
-      <c r="H5" s="30"/>
-      <c r="I5" s="3">
+    </row>
+    <row r="5" spans="5:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E5" s="34"/>
+      <c r="F5" s="35"/>
+      <c r="G5" s="35"/>
+      <c r="H5" s="29"/>
+      <c r="I5" s="47"/>
+      <c r="J5" s="2">
         <v>41596</v>
       </c>
-      <c r="J5" s="3">
-        <f t="shared" ref="J5:O5" si="0">I5+7</f>
+      <c r="K5" s="2">
+        <f t="shared" ref="K5:P5" si="0">J5+7</f>
         <v>41603</v>
       </c>
-      <c r="K5" s="3">
+      <c r="L5" s="2">
         <f t="shared" si="0"/>
         <v>41610</v>
       </c>
-      <c r="L5" s="3">
+      <c r="M5" s="2">
         <f t="shared" si="0"/>
         <v>41617</v>
       </c>
-      <c r="M5" s="3">
+      <c r="N5" s="2">
         <f t="shared" si="0"/>
         <v>41624</v>
       </c>
-      <c r="N5" s="3">
+      <c r="O5" s="2">
         <f t="shared" si="0"/>
         <v>41631</v>
       </c>
-      <c r="O5" s="3">
+      <c r="P5" s="2">
         <f t="shared" si="0"/>
         <v>41638</v>
       </c>
     </row>
-    <row r="6" spans="5:15" x14ac:dyDescent="0.25">
-      <c r="E6" s="5" t="s">
+    <row r="6" spans="5:16" x14ac:dyDescent="0.25">
+      <c r="E6" s="42" t="s">
+        <v>20</v>
+      </c>
+      <c r="F6" s="55" t="s">
+        <v>2</v>
+      </c>
+      <c r="G6" s="58" t="s">
+        <v>49</v>
+      </c>
+      <c r="H6" s="62" t="s">
+        <v>57</v>
+      </c>
+      <c r="I6" s="51" t="s">
+        <v>48</v>
+      </c>
+      <c r="J6" s="59"/>
+      <c r="K6" s="59"/>
+      <c r="L6" s="59"/>
+      <c r="M6" s="59"/>
+      <c r="N6" s="59"/>
+      <c r="O6" s="59"/>
+      <c r="P6" s="59"/>
+    </row>
+    <row r="7" spans="5:16" x14ac:dyDescent="0.25">
+      <c r="E7" s="43"/>
+      <c r="F7" s="56"/>
+      <c r="G7" s="58" t="s">
+        <v>50</v>
+      </c>
+      <c r="H7" s="62" t="s">
+        <v>57</v>
+      </c>
+      <c r="I7" s="52"/>
+      <c r="J7" s="59"/>
+      <c r="K7" s="59"/>
+      <c r="L7" s="59"/>
+      <c r="M7" s="59"/>
+      <c r="N7" s="59"/>
+      <c r="O7" s="59"/>
+      <c r="P7" s="59"/>
+    </row>
+    <row r="8" spans="5:16" x14ac:dyDescent="0.25">
+      <c r="E8" s="43"/>
+      <c r="F8" s="56"/>
+      <c r="G8" s="58" t="s">
+        <v>51</v>
+      </c>
+      <c r="H8" s="62" t="s">
+        <v>57</v>
+      </c>
+      <c r="I8" s="52"/>
+      <c r="J8" s="59"/>
+      <c r="K8" s="59"/>
+      <c r="L8" s="59"/>
+      <c r="M8" s="59"/>
+      <c r="N8" s="59"/>
+      <c r="O8" s="59"/>
+      <c r="P8" s="59"/>
+    </row>
+    <row r="9" spans="5:16" x14ac:dyDescent="0.25">
+      <c r="E9" s="43"/>
+      <c r="F9" s="56"/>
+      <c r="G9" s="58" t="s">
+        <v>52</v>
+      </c>
+      <c r="H9" s="62" t="s">
+        <v>57</v>
+      </c>
+      <c r="I9" s="52"/>
+      <c r="J9" s="59"/>
+      <c r="K9" s="59"/>
+      <c r="L9" s="59"/>
+      <c r="M9" s="59"/>
+      <c r="N9" s="59"/>
+      <c r="O9" s="59"/>
+      <c r="P9" s="59"/>
+    </row>
+    <row r="10" spans="5:16" x14ac:dyDescent="0.25">
+      <c r="E10" s="43"/>
+      <c r="F10" s="56"/>
+      <c r="G10" s="58" t="s">
+        <v>53</v>
+      </c>
+      <c r="H10" s="62" t="s">
+        <v>57</v>
+      </c>
+      <c r="I10" s="52"/>
+      <c r="J10" s="59"/>
+      <c r="K10" s="59"/>
+      <c r="L10" s="59"/>
+      <c r="M10" s="59"/>
+      <c r="N10" s="59"/>
+      <c r="O10" s="59"/>
+      <c r="P10" s="59"/>
+    </row>
+    <row r="11" spans="5:16" x14ac:dyDescent="0.25">
+      <c r="E11" s="43"/>
+      <c r="F11" s="56"/>
+      <c r="G11" s="58" t="s">
+        <v>54</v>
+      </c>
+      <c r="H11" s="62" t="s">
+        <v>57</v>
+      </c>
+      <c r="I11" s="52"/>
+      <c r="J11" s="59"/>
+      <c r="K11" s="59"/>
+      <c r="L11" s="59"/>
+      <c r="M11" s="59"/>
+      <c r="N11" s="59"/>
+      <c r="O11" s="59"/>
+      <c r="P11" s="59"/>
+    </row>
+    <row r="12" spans="5:16" x14ac:dyDescent="0.25">
+      <c r="E12" s="43"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="60"/>
+      <c r="H12" s="62" t="s">
+        <v>57</v>
+      </c>
+      <c r="I12" s="52"/>
+      <c r="J12" s="59"/>
+      <c r="K12" s="59"/>
+      <c r="L12" s="59"/>
+      <c r="M12" s="59"/>
+      <c r="N12" s="59"/>
+      <c r="O12" s="59"/>
+      <c r="P12" s="59"/>
+    </row>
+    <row r="13" spans="5:16" x14ac:dyDescent="0.25">
+      <c r="E13" s="43"/>
+      <c r="F13" s="39" t="s">
+        <v>1</v>
+      </c>
+      <c r="G13" s="58" t="s">
+        <v>47</v>
+      </c>
+      <c r="H13" s="62" t="s">
+        <v>48</v>
+      </c>
+      <c r="I13" s="52"/>
+      <c r="J13" s="59"/>
+      <c r="K13" s="59"/>
+      <c r="L13" s="59"/>
+      <c r="M13" s="59"/>
+      <c r="N13" s="59"/>
+      <c r="O13" s="59"/>
+      <c r="P13" s="59"/>
+    </row>
+    <row r="14" spans="5:16" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="E14" s="43"/>
+      <c r="F14" s="40"/>
+      <c r="G14" s="61" t="s">
+        <v>55</v>
+      </c>
+      <c r="H14" s="62" t="s">
+        <v>57</v>
+      </c>
+      <c r="I14" s="52"/>
+      <c r="J14" s="59"/>
+      <c r="K14" s="59"/>
+      <c r="L14" s="59"/>
+      <c r="M14" s="59"/>
+      <c r="N14" s="59"/>
+      <c r="O14" s="59"/>
+      <c r="P14" s="59"/>
+    </row>
+    <row r="15" spans="5:16" x14ac:dyDescent="0.25">
+      <c r="E15" s="44"/>
+      <c r="F15" s="41"/>
+      <c r="G15" s="58"/>
+      <c r="H15" s="62"/>
+      <c r="I15" s="53"/>
+      <c r="J15" s="59"/>
+      <c r="K15" s="59"/>
+      <c r="L15" s="59"/>
+      <c r="M15" s="59"/>
+      <c r="N15" s="59"/>
+      <c r="O15" s="59"/>
+      <c r="P15" s="59"/>
+    </row>
+    <row r="16" spans="5:16" x14ac:dyDescent="0.25">
+      <c r="E16" s="42" t="s">
         <v>21</v>
       </c>
-      <c r="F6" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="G6" s="4" t="s">
+      <c r="F16" s="55" t="s">
         <v>2</v>
       </c>
-      <c r="H6" s="4"/>
-      <c r="I6" s="4"/>
-      <c r="J6" s="4"/>
-      <c r="K6" s="4"/>
-      <c r="L6" s="4"/>
-      <c r="M6" s="4"/>
-      <c r="N6" s="4"/>
-      <c r="O6" s="4"/>
-    </row>
-    <row r="7" spans="5:15" x14ac:dyDescent="0.25">
-      <c r="E7" s="6"/>
-      <c r="F7" s="9"/>
-      <c r="G7" s="4"/>
-      <c r="H7" s="4"/>
-      <c r="I7" s="4"/>
-      <c r="J7" s="4"/>
-      <c r="K7" s="4"/>
-      <c r="L7" s="4"/>
-      <c r="M7" s="4"/>
-      <c r="N7" s="4"/>
-      <c r="O7" s="4"/>
-    </row>
-    <row r="8" spans="5:15" x14ac:dyDescent="0.25">
-      <c r="E8" s="6"/>
-      <c r="F8" s="10"/>
-      <c r="G8" s="4"/>
-      <c r="H8" s="4"/>
-      <c r="I8" s="4"/>
-      <c r="J8" s="4"/>
-      <c r="K8" s="4"/>
-      <c r="L8" s="4"/>
-      <c r="M8" s="4"/>
-      <c r="N8" s="4"/>
-      <c r="O8" s="4"/>
-    </row>
-    <row r="9" spans="5:15" x14ac:dyDescent="0.25">
-      <c r="E9" s="6"/>
-      <c r="F9" s="11" t="s">
+      <c r="G16" s="60" t="s">
+        <v>56</v>
+      </c>
+      <c r="H16" s="62"/>
+      <c r="I16" s="48"/>
+      <c r="J16" s="59"/>
+      <c r="K16" s="59"/>
+      <c r="L16" s="59"/>
+      <c r="M16" s="59"/>
+      <c r="N16" s="59"/>
+      <c r="O16" s="59"/>
+      <c r="P16" s="59"/>
+    </row>
+    <row r="17" spans="5:16" ht="63" x14ac:dyDescent="0.25">
+      <c r="E17" s="43"/>
+      <c r="F17" s="56"/>
+      <c r="G17" s="63" t="s">
+        <v>60</v>
+      </c>
+      <c r="H17" s="62"/>
+      <c r="I17" s="49"/>
+      <c r="J17" s="59"/>
+      <c r="K17" s="59"/>
+      <c r="L17" s="59"/>
+      <c r="M17" s="59"/>
+      <c r="N17" s="59"/>
+      <c r="O17" s="59"/>
+      <c r="P17" s="59"/>
+    </row>
+    <row r="18" spans="5:16" x14ac:dyDescent="0.25">
+      <c r="E18" s="43"/>
+      <c r="F18" s="56"/>
+      <c r="G18" s="57" t="s">
+        <v>51</v>
+      </c>
+      <c r="H18" s="62"/>
+      <c r="I18" s="49"/>
+      <c r="J18" s="59"/>
+      <c r="K18" s="59"/>
+      <c r="L18" s="59"/>
+      <c r="M18" s="59"/>
+      <c r="N18" s="59"/>
+      <c r="O18" s="59"/>
+      <c r="P18" s="59"/>
+    </row>
+    <row r="19" spans="5:16" x14ac:dyDescent="0.25">
+      <c r="E19" s="43"/>
+      <c r="F19" s="56"/>
+      <c r="G19" s="57" t="s">
+        <v>61</v>
+      </c>
+      <c r="H19" s="62"/>
+      <c r="I19" s="49"/>
+      <c r="J19" s="59"/>
+      <c r="K19" s="59"/>
+      <c r="L19" s="59"/>
+      <c r="M19" s="59"/>
+      <c r="N19" s="59"/>
+      <c r="O19" s="59"/>
+      <c r="P19" s="59"/>
+    </row>
+    <row r="20" spans="5:16" x14ac:dyDescent="0.25">
+      <c r="E20" s="43"/>
+      <c r="F20" s="56"/>
+      <c r="G20" s="57" t="s">
+        <v>62</v>
+      </c>
+      <c r="H20" s="62"/>
+      <c r="I20" s="49"/>
+      <c r="J20" s="59"/>
+      <c r="K20" s="59"/>
+      <c r="L20" s="59"/>
+      <c r="M20" s="59"/>
+      <c r="N20" s="59"/>
+      <c r="O20" s="59"/>
+      <c r="P20" s="59"/>
+    </row>
+    <row r="21" spans="5:16" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="E21" s="43"/>
+      <c r="F21" s="64"/>
+      <c r="G21" s="65" t="s">
+        <v>63</v>
+      </c>
+      <c r="H21" s="62"/>
+      <c r="I21" s="49"/>
+      <c r="J21" s="59"/>
+      <c r="K21" s="59"/>
+      <c r="L21" s="59"/>
+      <c r="M21" s="59"/>
+      <c r="N21" s="59"/>
+      <c r="O21" s="59"/>
+      <c r="P21" s="59"/>
+    </row>
+    <row r="22" spans="5:16" x14ac:dyDescent="0.25">
+      <c r="E22" s="43"/>
+      <c r="F22" s="39" t="s">
         <v>1</v>
       </c>
-      <c r="G9" s="2"/>
-      <c r="H9" s="2"/>
-      <c r="I9" s="2"/>
-      <c r="J9" s="2"/>
-      <c r="K9" s="2"/>
-      <c r="L9" s="2"/>
-      <c r="M9" s="2"/>
-      <c r="N9" s="2"/>
-      <c r="O9" s="2"/>
-    </row>
-    <row r="10" spans="5:15" x14ac:dyDescent="0.25">
-      <c r="E10" s="6"/>
-      <c r="F10" s="12"/>
-      <c r="G10" s="2"/>
-      <c r="H10" s="2"/>
-      <c r="I10" s="2"/>
-      <c r="J10" s="2"/>
-      <c r="K10" s="2"/>
-      <c r="L10" s="2"/>
-      <c r="M10" s="2"/>
-      <c r="N10" s="2"/>
-      <c r="O10" s="2"/>
-    </row>
-    <row r="11" spans="5:15" x14ac:dyDescent="0.25">
-      <c r="E11" s="7"/>
-      <c r="F11" s="13"/>
-      <c r="G11" s="2"/>
-      <c r="H11" s="2"/>
-      <c r="I11" s="2"/>
-      <c r="J11" s="2"/>
-      <c r="K11" s="2"/>
-      <c r="L11" s="2"/>
-      <c r="M11" s="2"/>
-      <c r="N11" s="2"/>
-      <c r="O11" s="2"/>
-    </row>
-    <row r="12" spans="5:15" x14ac:dyDescent="0.25">
-      <c r="E12" s="5" t="s">
+      <c r="G22" s="57" t="s">
+        <v>58</v>
+      </c>
+      <c r="H22" s="62"/>
+      <c r="I22" s="49"/>
+      <c r="J22" s="59"/>
+      <c r="K22" s="59"/>
+      <c r="L22" s="59"/>
+      <c r="M22" s="59"/>
+      <c r="N22" s="59"/>
+      <c r="O22" s="59"/>
+      <c r="P22" s="59"/>
+    </row>
+    <row r="23" spans="5:16" x14ac:dyDescent="0.25">
+      <c r="E23" s="43"/>
+      <c r="F23" s="40"/>
+      <c r="G23" s="54" t="s">
+        <v>59</v>
+      </c>
+      <c r="H23" s="62"/>
+      <c r="I23" s="49"/>
+      <c r="J23" s="59"/>
+      <c r="K23" s="59"/>
+      <c r="L23" s="59"/>
+      <c r="M23" s="59"/>
+      <c r="N23" s="59"/>
+      <c r="O23" s="59"/>
+      <c r="P23" s="59"/>
+    </row>
+    <row r="24" spans="5:16" x14ac:dyDescent="0.25">
+      <c r="E24" s="44"/>
+      <c r="F24" s="41"/>
+      <c r="G24" s="58"/>
+      <c r="H24" s="62"/>
+      <c r="I24" s="50"/>
+      <c r="J24" s="59"/>
+      <c r="K24" s="59"/>
+      <c r="L24" s="59"/>
+      <c r="M24" s="59"/>
+      <c r="N24" s="59"/>
+      <c r="O24" s="59"/>
+      <c r="P24" s="59"/>
+    </row>
+    <row r="25" spans="5:16" x14ac:dyDescent="0.25">
+      <c r="E25" s="42" t="s">
         <v>22</v>
       </c>
-      <c r="F12" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="G12" s="4"/>
-      <c r="H12" s="4"/>
-      <c r="I12" s="4"/>
-      <c r="J12" s="4"/>
-      <c r="K12" s="4"/>
-      <c r="L12" s="4"/>
-      <c r="M12" s="4"/>
-      <c r="N12" s="4"/>
-      <c r="O12" s="4"/>
-    </row>
-    <row r="13" spans="5:15" x14ac:dyDescent="0.25">
-      <c r="E13" s="6"/>
-      <c r="F13" s="9"/>
-      <c r="G13" s="4"/>
-      <c r="H13" s="4"/>
-      <c r="I13" s="4"/>
-      <c r="J13" s="4"/>
-      <c r="K13" s="4"/>
-      <c r="L13" s="4"/>
-      <c r="M13" s="4"/>
-      <c r="N13" s="4"/>
-      <c r="O13" s="4"/>
-    </row>
-    <row r="14" spans="5:15" x14ac:dyDescent="0.25">
-      <c r="E14" s="6"/>
-      <c r="F14" s="10"/>
-      <c r="G14" s="4"/>
-      <c r="H14" s="4"/>
-      <c r="I14" s="4"/>
-      <c r="J14" s="4"/>
-      <c r="K14" s="4"/>
-      <c r="L14" s="4"/>
-      <c r="M14" s="4"/>
-      <c r="N14" s="4"/>
-      <c r="O14" s="4"/>
-    </row>
-    <row r="15" spans="5:15" x14ac:dyDescent="0.25">
-      <c r="E15" s="6"/>
-      <c r="F15" s="11" t="s">
+      <c r="F25" s="36" t="s">
+        <v>2</v>
+      </c>
+      <c r="G25" s="58"/>
+      <c r="H25" s="62"/>
+      <c r="I25" s="48"/>
+      <c r="J25" s="59"/>
+      <c r="K25" s="59"/>
+      <c r="L25" s="59"/>
+      <c r="M25" s="59"/>
+      <c r="N25" s="59"/>
+      <c r="O25" s="59"/>
+      <c r="P25" s="59"/>
+    </row>
+    <row r="26" spans="5:16" x14ac:dyDescent="0.25">
+      <c r="E26" s="43"/>
+      <c r="F26" s="37"/>
+      <c r="G26" s="58"/>
+      <c r="H26" s="62"/>
+      <c r="I26" s="49"/>
+      <c r="J26" s="59"/>
+      <c r="K26" s="59"/>
+      <c r="L26" s="59"/>
+      <c r="M26" s="59"/>
+      <c r="N26" s="59"/>
+      <c r="O26" s="59"/>
+      <c r="P26" s="59"/>
+    </row>
+    <row r="27" spans="5:16" x14ac:dyDescent="0.25">
+      <c r="E27" s="43"/>
+      <c r="F27" s="38"/>
+      <c r="G27" s="58"/>
+      <c r="H27" s="62"/>
+      <c r="I27" s="49"/>
+      <c r="J27" s="59"/>
+      <c r="K27" s="59"/>
+      <c r="L27" s="59"/>
+      <c r="M27" s="59"/>
+      <c r="N27" s="59"/>
+      <c r="O27" s="59"/>
+      <c r="P27" s="59"/>
+    </row>
+    <row r="28" spans="5:16" x14ac:dyDescent="0.25">
+      <c r="E28" s="43"/>
+      <c r="F28" s="39" t="s">
         <v>1</v>
       </c>
-      <c r="G15" s="2"/>
-      <c r="H15" s="2"/>
-      <c r="I15" s="2"/>
-      <c r="J15" s="2"/>
-      <c r="K15" s="2"/>
-      <c r="L15" s="2"/>
-      <c r="M15" s="2"/>
-      <c r="N15" s="2"/>
-      <c r="O15" s="2"/>
-    </row>
-    <row r="16" spans="5:15" x14ac:dyDescent="0.25">
-      <c r="E16" s="6"/>
-      <c r="F16" s="12"/>
-      <c r="G16" s="2"/>
-      <c r="H16" s="2"/>
-      <c r="I16" s="2"/>
-      <c r="J16" s="2"/>
-      <c r="K16" s="2"/>
-      <c r="L16" s="2"/>
-      <c r="M16" s="2"/>
-      <c r="N16" s="2"/>
-      <c r="O16" s="2"/>
-    </row>
-    <row r="17" spans="5:15" x14ac:dyDescent="0.25">
-      <c r="E17" s="7"/>
-      <c r="F17" s="13"/>
-      <c r="G17" s="2"/>
-      <c r="H17" s="2"/>
-      <c r="I17" s="2"/>
-      <c r="J17" s="2"/>
-      <c r="K17" s="2"/>
-      <c r="L17" s="2"/>
-      <c r="M17" s="2"/>
-      <c r="N17" s="2"/>
-      <c r="O17" s="2"/>
-    </row>
-    <row r="18" spans="5:15" x14ac:dyDescent="0.25">
-      <c r="E18" s="5" t="s">
+      <c r="G28" s="58"/>
+      <c r="H28" s="62"/>
+      <c r="I28" s="49"/>
+      <c r="J28" s="59"/>
+      <c r="K28" s="59"/>
+      <c r="L28" s="59"/>
+      <c r="M28" s="59"/>
+      <c r="N28" s="59"/>
+      <c r="O28" s="59"/>
+      <c r="P28" s="59"/>
+    </row>
+    <row r="29" spans="5:16" x14ac:dyDescent="0.25">
+      <c r="E29" s="43"/>
+      <c r="F29" s="40"/>
+      <c r="G29" s="58"/>
+      <c r="H29" s="62"/>
+      <c r="I29" s="49"/>
+      <c r="J29" s="59"/>
+      <c r="K29" s="59"/>
+      <c r="L29" s="59"/>
+      <c r="M29" s="59"/>
+      <c r="N29" s="59"/>
+      <c r="O29" s="59"/>
+      <c r="P29" s="59"/>
+    </row>
+    <row r="30" spans="5:16" x14ac:dyDescent="0.25">
+      <c r="E30" s="44"/>
+      <c r="F30" s="41"/>
+      <c r="G30" s="58"/>
+      <c r="H30" s="62"/>
+      <c r="I30" s="50"/>
+      <c r="J30" s="59"/>
+      <c r="K30" s="59"/>
+      <c r="L30" s="59"/>
+      <c r="M30" s="59"/>
+      <c r="N30" s="59"/>
+      <c r="O30" s="59"/>
+      <c r="P30" s="59"/>
+    </row>
+    <row r="31" spans="5:16" x14ac:dyDescent="0.25">
+      <c r="E31" s="42" t="s">
         <v>23</v>
       </c>
-      <c r="F18" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="G18" s="4"/>
-      <c r="H18" s="4"/>
-      <c r="I18" s="4"/>
-      <c r="J18" s="4"/>
-      <c r="K18" s="4"/>
-      <c r="L18" s="4"/>
-      <c r="M18" s="4"/>
-      <c r="N18" s="4"/>
-      <c r="O18" s="4"/>
-    </row>
-    <row r="19" spans="5:15" x14ac:dyDescent="0.25">
-      <c r="E19" s="6"/>
-      <c r="F19" s="9"/>
-      <c r="G19" s="4"/>
-      <c r="H19" s="4"/>
-      <c r="I19" s="4"/>
-      <c r="J19" s="4"/>
-      <c r="K19" s="4"/>
-      <c r="L19" s="4"/>
-      <c r="M19" s="4"/>
-      <c r="N19" s="4"/>
-      <c r="O19" s="4"/>
-    </row>
-    <row r="20" spans="5:15" x14ac:dyDescent="0.25">
-      <c r="E20" s="6"/>
-      <c r="F20" s="10"/>
-      <c r="G20" s="4"/>
-      <c r="H20" s="4"/>
-      <c r="I20" s="4"/>
-      <c r="J20" s="4"/>
-      <c r="K20" s="4"/>
-      <c r="L20" s="4"/>
-      <c r="M20" s="4"/>
-      <c r="N20" s="4"/>
-      <c r="O20" s="4"/>
-    </row>
-    <row r="21" spans="5:15" x14ac:dyDescent="0.25">
-      <c r="E21" s="6"/>
-      <c r="F21" s="11" t="s">
+      <c r="F31" s="36" t="s">
+        <v>2</v>
+      </c>
+      <c r="G31" s="58"/>
+      <c r="H31" s="62"/>
+      <c r="I31" s="48"/>
+      <c r="J31" s="59"/>
+      <c r="K31" s="59"/>
+      <c r="L31" s="59"/>
+      <c r="M31" s="59"/>
+      <c r="N31" s="59"/>
+      <c r="O31" s="59"/>
+      <c r="P31" s="59"/>
+    </row>
+    <row r="32" spans="5:16" x14ac:dyDescent="0.25">
+      <c r="E32" s="43"/>
+      <c r="F32" s="37"/>
+      <c r="G32" s="58"/>
+      <c r="H32" s="62"/>
+      <c r="I32" s="49"/>
+      <c r="J32" s="59"/>
+      <c r="K32" s="59"/>
+      <c r="L32" s="59"/>
+      <c r="M32" s="59"/>
+      <c r="N32" s="59"/>
+      <c r="O32" s="59"/>
+      <c r="P32" s="59"/>
+    </row>
+    <row r="33" spans="5:16" x14ac:dyDescent="0.25">
+      <c r="E33" s="43"/>
+      <c r="F33" s="38"/>
+      <c r="G33" s="58"/>
+      <c r="H33" s="62"/>
+      <c r="I33" s="49"/>
+      <c r="J33" s="59"/>
+      <c r="K33" s="59"/>
+      <c r="L33" s="59"/>
+      <c r="M33" s="59"/>
+      <c r="N33" s="59"/>
+      <c r="O33" s="59"/>
+      <c r="P33" s="59"/>
+    </row>
+    <row r="34" spans="5:16" x14ac:dyDescent="0.25">
+      <c r="E34" s="43"/>
+      <c r="F34" s="39" t="s">
         <v>1</v>
       </c>
-      <c r="G21" s="2"/>
-      <c r="H21" s="2"/>
-      <c r="I21" s="2"/>
-      <c r="J21" s="2"/>
-      <c r="K21" s="2"/>
-      <c r="L21" s="2"/>
-      <c r="M21" s="2"/>
-      <c r="N21" s="2"/>
-      <c r="O21" s="2"/>
-    </row>
-    <row r="22" spans="5:15" x14ac:dyDescent="0.25">
-      <c r="E22" s="6"/>
-      <c r="F22" s="12"/>
-      <c r="G22" s="2"/>
-      <c r="H22" s="2"/>
-      <c r="I22" s="2"/>
-      <c r="J22" s="2"/>
-      <c r="K22" s="2"/>
-      <c r="L22" s="2"/>
-      <c r="M22" s="2"/>
-      <c r="N22" s="2"/>
-      <c r="O22" s="2"/>
-    </row>
-    <row r="23" spans="5:15" x14ac:dyDescent="0.25">
-      <c r="E23" s="7"/>
-      <c r="F23" s="13"/>
-      <c r="G23" s="2"/>
-      <c r="H23" s="2"/>
-      <c r="I23" s="2"/>
-      <c r="J23" s="2"/>
-      <c r="K23" s="2"/>
-      <c r="L23" s="2"/>
-      <c r="M23" s="2"/>
-      <c r="N23" s="2"/>
-      <c r="O23" s="2"/>
-    </row>
-    <row r="24" spans="5:15" x14ac:dyDescent="0.25">
-      <c r="E24" s="5" t="s">
+      <c r="G34" s="58"/>
+      <c r="H34" s="62"/>
+      <c r="I34" s="49"/>
+      <c r="J34" s="59"/>
+      <c r="K34" s="59"/>
+      <c r="L34" s="59"/>
+      <c r="M34" s="59"/>
+      <c r="N34" s="59"/>
+      <c r="O34" s="59"/>
+      <c r="P34" s="59"/>
+    </row>
+    <row r="35" spans="5:16" x14ac:dyDescent="0.25">
+      <c r="E35" s="43"/>
+      <c r="F35" s="40"/>
+      <c r="G35" s="58"/>
+      <c r="H35" s="62"/>
+      <c r="I35" s="49"/>
+      <c r="J35" s="59"/>
+      <c r="K35" s="59"/>
+      <c r="L35" s="59"/>
+      <c r="M35" s="59"/>
+      <c r="N35" s="59"/>
+      <c r="O35" s="59"/>
+      <c r="P35" s="59"/>
+    </row>
+    <row r="36" spans="5:16" x14ac:dyDescent="0.25">
+      <c r="E36" s="44"/>
+      <c r="F36" s="41"/>
+      <c r="G36" s="58"/>
+      <c r="H36" s="62"/>
+      <c r="I36" s="50"/>
+      <c r="J36" s="59"/>
+      <c r="K36" s="59"/>
+      <c r="L36" s="59"/>
+      <c r="M36" s="59"/>
+      <c r="N36" s="59"/>
+      <c r="O36" s="59"/>
+      <c r="P36" s="59"/>
+    </row>
+    <row r="37" spans="5:16" x14ac:dyDescent="0.25">
+      <c r="E37" s="42" t="s">
         <v>24</v>
       </c>
-      <c r="F24" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="G24" s="4"/>
-      <c r="H24" s="4"/>
-      <c r="I24" s="4"/>
-      <c r="J24" s="4"/>
-      <c r="K24" s="4"/>
-      <c r="L24" s="4"/>
-      <c r="M24" s="4"/>
-      <c r="N24" s="4"/>
-      <c r="O24" s="4"/>
-    </row>
-    <row r="25" spans="5:15" x14ac:dyDescent="0.25">
-      <c r="E25" s="6"/>
-      <c r="F25" s="9"/>
-      <c r="G25" s="4"/>
-      <c r="H25" s="4"/>
-      <c r="I25" s="4"/>
-      <c r="J25" s="4"/>
-      <c r="K25" s="4"/>
-      <c r="L25" s="4"/>
-      <c r="M25" s="4"/>
-      <c r="N25" s="4"/>
-      <c r="O25" s="4"/>
-    </row>
-    <row r="26" spans="5:15" x14ac:dyDescent="0.25">
-      <c r="E26" s="6"/>
-      <c r="F26" s="10"/>
-      <c r="G26" s="4"/>
-      <c r="H26" s="4"/>
-      <c r="I26" s="4"/>
-      <c r="J26" s="4"/>
-      <c r="K26" s="4"/>
-      <c r="L26" s="4"/>
-      <c r="M26" s="4"/>
-      <c r="N26" s="4"/>
-      <c r="O26" s="4"/>
-    </row>
-    <row r="27" spans="5:15" x14ac:dyDescent="0.25">
-      <c r="E27" s="6"/>
-      <c r="F27" s="11" t="s">
+      <c r="F37" s="36" t="s">
+        <v>2</v>
+      </c>
+      <c r="G37" s="58"/>
+      <c r="H37" s="62"/>
+      <c r="I37" s="48"/>
+      <c r="J37" s="59"/>
+      <c r="K37" s="59"/>
+      <c r="L37" s="59"/>
+      <c r="M37" s="59"/>
+      <c r="N37" s="59"/>
+      <c r="O37" s="59"/>
+      <c r="P37" s="59"/>
+    </row>
+    <row r="38" spans="5:16" x14ac:dyDescent="0.25">
+      <c r="E38" s="43"/>
+      <c r="F38" s="37"/>
+      <c r="G38" s="58"/>
+      <c r="H38" s="62"/>
+      <c r="I38" s="49"/>
+      <c r="J38" s="59"/>
+      <c r="K38" s="59"/>
+      <c r="L38" s="59"/>
+      <c r="M38" s="59"/>
+      <c r="N38" s="59"/>
+      <c r="O38" s="59"/>
+      <c r="P38" s="59"/>
+    </row>
+    <row r="39" spans="5:16" x14ac:dyDescent="0.25">
+      <c r="E39" s="43"/>
+      <c r="F39" s="38"/>
+      <c r="G39" s="58"/>
+      <c r="H39" s="62"/>
+      <c r="I39" s="49"/>
+      <c r="J39" s="59"/>
+      <c r="K39" s="59"/>
+      <c r="L39" s="59"/>
+      <c r="M39" s="59"/>
+      <c r="N39" s="59"/>
+      <c r="O39" s="59"/>
+      <c r="P39" s="59"/>
+    </row>
+    <row r="40" spans="5:16" x14ac:dyDescent="0.25">
+      <c r="E40" s="43"/>
+      <c r="F40" s="39" t="s">
         <v>1</v>
       </c>
-      <c r="G27" s="2"/>
-      <c r="H27" s="2"/>
-      <c r="I27" s="2"/>
-      <c r="J27" s="2"/>
-      <c r="K27" s="2"/>
-      <c r="L27" s="2"/>
-      <c r="M27" s="2"/>
-      <c r="N27" s="2"/>
-      <c r="O27" s="2"/>
-    </row>
-    <row r="28" spans="5:15" x14ac:dyDescent="0.25">
-      <c r="E28" s="6"/>
-      <c r="F28" s="12"/>
-      <c r="G28" s="2"/>
-      <c r="H28" s="2"/>
-      <c r="I28" s="2"/>
-      <c r="J28" s="2"/>
-      <c r="K28" s="2"/>
-      <c r="L28" s="2"/>
-      <c r="M28" s="2"/>
-      <c r="N28" s="2"/>
-      <c r="O28" s="2"/>
-    </row>
-    <row r="29" spans="5:15" x14ac:dyDescent="0.25">
-      <c r="E29" s="7"/>
-      <c r="F29" s="13"/>
-      <c r="G29" s="2"/>
-      <c r="H29" s="2"/>
-      <c r="I29" s="2"/>
-      <c r="J29" s="2"/>
-      <c r="K29" s="2"/>
-      <c r="L29" s="2"/>
-      <c r="M29" s="2"/>
-      <c r="N29" s="2"/>
-      <c r="O29" s="2"/>
-    </row>
-    <row r="30" spans="5:15" x14ac:dyDescent="0.25">
-      <c r="E30" s="5" t="s">
+      <c r="G40" s="58"/>
+      <c r="H40" s="62"/>
+      <c r="I40" s="49"/>
+      <c r="J40" s="59"/>
+      <c r="K40" s="59"/>
+      <c r="L40" s="59"/>
+      <c r="M40" s="59"/>
+      <c r="N40" s="59"/>
+      <c r="O40" s="59"/>
+      <c r="P40" s="59"/>
+    </row>
+    <row r="41" spans="5:16" x14ac:dyDescent="0.25">
+      <c r="E41" s="43"/>
+      <c r="F41" s="40"/>
+      <c r="G41" s="58"/>
+      <c r="H41" s="62"/>
+      <c r="I41" s="49"/>
+      <c r="J41" s="59"/>
+      <c r="K41" s="59"/>
+      <c r="L41" s="59"/>
+      <c r="M41" s="59"/>
+      <c r="N41" s="59"/>
+      <c r="O41" s="59"/>
+      <c r="P41" s="59"/>
+    </row>
+    <row r="42" spans="5:16" x14ac:dyDescent="0.25">
+      <c r="E42" s="44"/>
+      <c r="F42" s="41"/>
+      <c r="G42" s="58"/>
+      <c r="H42" s="62"/>
+      <c r="I42" s="50"/>
+      <c r="J42" s="59"/>
+      <c r="K42" s="59"/>
+      <c r="L42" s="59"/>
+      <c r="M42" s="59"/>
+      <c r="N42" s="59"/>
+      <c r="O42" s="59"/>
+      <c r="P42" s="59"/>
+    </row>
+    <row r="43" spans="5:16" x14ac:dyDescent="0.25">
+      <c r="E43" s="42" t="s">
         <v>25</v>
       </c>
-      <c r="F30" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="G30" s="4"/>
-      <c r="H30" s="4"/>
-      <c r="I30" s="4"/>
-      <c r="J30" s="4"/>
-      <c r="K30" s="4"/>
-      <c r="L30" s="4"/>
-      <c r="M30" s="4"/>
-      <c r="N30" s="4"/>
-      <c r="O30" s="4"/>
-    </row>
-    <row r="31" spans="5:15" x14ac:dyDescent="0.25">
-      <c r="E31" s="6"/>
-      <c r="F31" s="9"/>
-      <c r="G31" s="4"/>
-      <c r="H31" s="4"/>
-      <c r="I31" s="4"/>
-      <c r="J31" s="4"/>
-      <c r="K31" s="4"/>
-      <c r="L31" s="4"/>
-      <c r="M31" s="4"/>
-      <c r="N31" s="4"/>
-      <c r="O31" s="4"/>
-    </row>
-    <row r="32" spans="5:15" x14ac:dyDescent="0.25">
-      <c r="E32" s="6"/>
-      <c r="F32" s="10"/>
-      <c r="G32" s="4"/>
-      <c r="H32" s="4"/>
-      <c r="I32" s="4"/>
-      <c r="J32" s="4"/>
-      <c r="K32" s="4"/>
-      <c r="L32" s="4"/>
-      <c r="M32" s="4"/>
-      <c r="N32" s="4"/>
-      <c r="O32" s="4"/>
-    </row>
-    <row r="33" spans="5:15" x14ac:dyDescent="0.25">
-      <c r="E33" s="6"/>
-      <c r="F33" s="11" t="s">
+      <c r="F43" s="36" t="s">
+        <v>2</v>
+      </c>
+      <c r="G43" s="58"/>
+      <c r="H43" s="62"/>
+      <c r="I43" s="48"/>
+      <c r="J43" s="59"/>
+      <c r="K43" s="59"/>
+      <c r="L43" s="59"/>
+      <c r="M43" s="59"/>
+      <c r="N43" s="59"/>
+      <c r="O43" s="59"/>
+      <c r="P43" s="59"/>
+    </row>
+    <row r="44" spans="5:16" x14ac:dyDescent="0.25">
+      <c r="E44" s="43"/>
+      <c r="F44" s="37"/>
+      <c r="G44" s="58"/>
+      <c r="H44" s="62"/>
+      <c r="I44" s="49"/>
+      <c r="J44" s="59"/>
+      <c r="K44" s="59"/>
+      <c r="L44" s="59"/>
+      <c r="M44" s="59"/>
+      <c r="N44" s="59"/>
+      <c r="O44" s="59"/>
+      <c r="P44" s="59"/>
+    </row>
+    <row r="45" spans="5:16" x14ac:dyDescent="0.25">
+      <c r="E45" s="43"/>
+      <c r="F45" s="38"/>
+      <c r="G45" s="58"/>
+      <c r="H45" s="62"/>
+      <c r="I45" s="49"/>
+      <c r="J45" s="59"/>
+      <c r="K45" s="59"/>
+      <c r="L45" s="59"/>
+      <c r="M45" s="59"/>
+      <c r="N45" s="59"/>
+      <c r="O45" s="59"/>
+      <c r="P45" s="59"/>
+    </row>
+    <row r="46" spans="5:16" x14ac:dyDescent="0.25">
+      <c r="E46" s="43"/>
+      <c r="F46" s="39" t="s">
         <v>1</v>
       </c>
-      <c r="G33" s="2"/>
-      <c r="H33" s="2"/>
-      <c r="I33" s="2"/>
-      <c r="J33" s="2"/>
-      <c r="K33" s="2"/>
-      <c r="L33" s="2"/>
-      <c r="M33" s="2"/>
-      <c r="N33" s="2"/>
-      <c r="O33" s="2"/>
-    </row>
-    <row r="34" spans="5:15" x14ac:dyDescent="0.25">
-      <c r="E34" s="6"/>
-      <c r="F34" s="12"/>
-      <c r="G34" s="2"/>
-      <c r="H34" s="2"/>
-      <c r="I34" s="2"/>
-      <c r="J34" s="2"/>
-      <c r="K34" s="2"/>
-      <c r="L34" s="2"/>
-      <c r="M34" s="2"/>
-      <c r="N34" s="2"/>
-      <c r="O34" s="2"/>
-    </row>
-    <row r="35" spans="5:15" x14ac:dyDescent="0.25">
-      <c r="E35" s="7"/>
-      <c r="F35" s="13"/>
-      <c r="G35" s="2"/>
-      <c r="H35" s="2"/>
-      <c r="I35" s="2"/>
-      <c r="J35" s="2"/>
-      <c r="K35" s="2"/>
-      <c r="L35" s="2"/>
-      <c r="M35" s="2"/>
-      <c r="N35" s="2"/>
-      <c r="O35" s="2"/>
-    </row>
-    <row r="36" spans="5:15" x14ac:dyDescent="0.25">
-      <c r="E36" s="5" t="s">
+      <c r="G46" s="58"/>
+      <c r="H46" s="62"/>
+      <c r="I46" s="49"/>
+      <c r="J46" s="59"/>
+      <c r="K46" s="59"/>
+      <c r="L46" s="59"/>
+      <c r="M46" s="59"/>
+      <c r="N46" s="59"/>
+      <c r="O46" s="59"/>
+      <c r="P46" s="59"/>
+    </row>
+    <row r="47" spans="5:16" x14ac:dyDescent="0.25">
+      <c r="E47" s="43"/>
+      <c r="F47" s="40"/>
+      <c r="G47" s="58"/>
+      <c r="H47" s="62"/>
+      <c r="I47" s="49"/>
+      <c r="J47" s="59"/>
+      <c r="K47" s="59"/>
+      <c r="L47" s="59"/>
+      <c r="M47" s="59"/>
+      <c r="N47" s="59"/>
+      <c r="O47" s="59"/>
+      <c r="P47" s="59"/>
+    </row>
+    <row r="48" spans="5:16" x14ac:dyDescent="0.25">
+      <c r="E48" s="44"/>
+      <c r="F48" s="41"/>
+      <c r="G48" s="58"/>
+      <c r="H48" s="62"/>
+      <c r="I48" s="50"/>
+      <c r="J48" s="59"/>
+      <c r="K48" s="59"/>
+      <c r="L48" s="59"/>
+      <c r="M48" s="59"/>
+      <c r="N48" s="59"/>
+      <c r="O48" s="59"/>
+      <c r="P48" s="59"/>
+    </row>
+    <row r="49" spans="5:16" x14ac:dyDescent="0.25">
+      <c r="E49" s="42" t="s">
         <v>26</v>
       </c>
-      <c r="F36" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="G36" s="4"/>
-      <c r="H36" s="4"/>
-      <c r="I36" s="4"/>
-      <c r="J36" s="4"/>
-      <c r="K36" s="4"/>
-      <c r="L36" s="4"/>
-      <c r="M36" s="4"/>
-      <c r="N36" s="4"/>
-      <c r="O36" s="4"/>
-    </row>
-    <row r="37" spans="5:15" x14ac:dyDescent="0.25">
-      <c r="E37" s="6"/>
-      <c r="F37" s="9"/>
-      <c r="G37" s="4"/>
-      <c r="H37" s="4"/>
-      <c r="I37" s="4"/>
-      <c r="J37" s="4"/>
-      <c r="K37" s="4"/>
-      <c r="L37" s="4"/>
-      <c r="M37" s="4"/>
-      <c r="N37" s="4"/>
-      <c r="O37" s="4"/>
-    </row>
-    <row r="38" spans="5:15" x14ac:dyDescent="0.25">
-      <c r="E38" s="6"/>
-      <c r="F38" s="10"/>
-      <c r="G38" s="4"/>
-      <c r="H38" s="4"/>
-      <c r="I38" s="4"/>
-      <c r="J38" s="4"/>
-      <c r="K38" s="4"/>
-      <c r="L38" s="4"/>
-      <c r="M38" s="4"/>
-      <c r="N38" s="4"/>
-      <c r="O38" s="4"/>
-    </row>
-    <row r="39" spans="5:15" x14ac:dyDescent="0.25">
-      <c r="E39" s="6"/>
-      <c r="F39" s="11" t="s">
+      <c r="F49" s="36" t="s">
+        <v>2</v>
+      </c>
+      <c r="G49" s="58"/>
+      <c r="H49" s="62"/>
+      <c r="I49" s="48"/>
+      <c r="J49" s="59"/>
+      <c r="K49" s="59"/>
+      <c r="L49" s="59"/>
+      <c r="M49" s="59"/>
+      <c r="N49" s="59"/>
+      <c r="O49" s="59"/>
+      <c r="P49" s="59"/>
+    </row>
+    <row r="50" spans="5:16" x14ac:dyDescent="0.25">
+      <c r="E50" s="43"/>
+      <c r="F50" s="37"/>
+      <c r="G50" s="58"/>
+      <c r="H50" s="62"/>
+      <c r="I50" s="49"/>
+      <c r="J50" s="59"/>
+      <c r="K50" s="59"/>
+      <c r="L50" s="59"/>
+      <c r="M50" s="59"/>
+      <c r="N50" s="59"/>
+      <c r="O50" s="59"/>
+      <c r="P50" s="59"/>
+    </row>
+    <row r="51" spans="5:16" x14ac:dyDescent="0.25">
+      <c r="E51" s="43"/>
+      <c r="F51" s="38"/>
+      <c r="G51" s="58"/>
+      <c r="H51" s="62"/>
+      <c r="I51" s="49"/>
+      <c r="J51" s="59"/>
+      <c r="K51" s="59"/>
+      <c r="L51" s="59"/>
+      <c r="M51" s="59"/>
+      <c r="N51" s="59"/>
+      <c r="O51" s="59"/>
+      <c r="P51" s="59"/>
+    </row>
+    <row r="52" spans="5:16" x14ac:dyDescent="0.25">
+      <c r="E52" s="43"/>
+      <c r="F52" s="39" t="s">
         <v>1</v>
       </c>
-      <c r="G39" s="2"/>
-      <c r="H39" s="2"/>
-      <c r="I39" s="2"/>
-      <c r="J39" s="2"/>
-      <c r="K39" s="2"/>
-      <c r="L39" s="2"/>
-      <c r="M39" s="2"/>
-      <c r="N39" s="2"/>
-      <c r="O39" s="2"/>
-    </row>
-    <row r="40" spans="5:15" x14ac:dyDescent="0.25">
-      <c r="E40" s="6"/>
-      <c r="F40" s="12"/>
-      <c r="G40" s="2"/>
-      <c r="H40" s="2"/>
-      <c r="I40" s="2"/>
-      <c r="J40" s="2"/>
-      <c r="K40" s="2"/>
-      <c r="L40" s="2"/>
-      <c r="M40" s="2"/>
-      <c r="N40" s="2"/>
-      <c r="O40" s="2"/>
-    </row>
-    <row r="41" spans="5:15" x14ac:dyDescent="0.25">
-      <c r="E41" s="7"/>
-      <c r="F41" s="13"/>
-      <c r="G41" s="2"/>
-      <c r="H41" s="2"/>
-      <c r="I41" s="2"/>
-      <c r="J41" s="2"/>
-      <c r="K41" s="2"/>
-      <c r="L41" s="2"/>
-      <c r="M41" s="2"/>
-      <c r="N41" s="2"/>
-      <c r="O41" s="2"/>
-    </row>
-    <row r="42" spans="5:15" x14ac:dyDescent="0.25">
-      <c r="E42" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="F42" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="G42" s="4"/>
-      <c r="H42" s="4"/>
-      <c r="I42" s="4"/>
-      <c r="J42" s="4"/>
-      <c r="K42" s="4"/>
-      <c r="L42" s="4"/>
-      <c r="M42" s="4"/>
-      <c r="N42" s="4"/>
-      <c r="O42" s="4"/>
-    </row>
-    <row r="43" spans="5:15" x14ac:dyDescent="0.25">
-      <c r="E43" s="6"/>
-      <c r="F43" s="9"/>
-      <c r="G43" s="4"/>
-      <c r="H43" s="4"/>
-      <c r="I43" s="4"/>
-      <c r="J43" s="4"/>
-      <c r="K43" s="4"/>
-      <c r="L43" s="4"/>
-      <c r="M43" s="4"/>
-      <c r="N43" s="4"/>
-      <c r="O43" s="4"/>
-    </row>
-    <row r="44" spans="5:15" x14ac:dyDescent="0.25">
-      <c r="E44" s="6"/>
-      <c r="F44" s="10"/>
-      <c r="G44" s="4"/>
-      <c r="H44" s="4"/>
-      <c r="I44" s="4"/>
-      <c r="J44" s="4"/>
-      <c r="K44" s="4"/>
-      <c r="L44" s="4"/>
-      <c r="M44" s="4"/>
-      <c r="N44" s="4"/>
-      <c r="O44" s="4"/>
-    </row>
-    <row r="45" spans="5:15" x14ac:dyDescent="0.25">
-      <c r="E45" s="6"/>
-      <c r="F45" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="G45" s="2"/>
-      <c r="H45" s="2"/>
-      <c r="I45" s="2"/>
-      <c r="J45" s="2"/>
-      <c r="K45" s="2"/>
-      <c r="L45" s="2"/>
-      <c r="M45" s="2"/>
-      <c r="N45" s="2"/>
-      <c r="O45" s="2"/>
-    </row>
-    <row r="46" spans="5:15" x14ac:dyDescent="0.25">
-      <c r="E46" s="6"/>
-      <c r="F46" s="12"/>
-      <c r="G46" s="2"/>
-      <c r="H46" s="2"/>
-      <c r="I46" s="2"/>
-      <c r="J46" s="2"/>
-      <c r="K46" s="2"/>
-      <c r="L46" s="2"/>
-      <c r="M46" s="2"/>
-      <c r="N46" s="2"/>
-      <c r="O46" s="2"/>
-    </row>
-    <row r="47" spans="5:15" x14ac:dyDescent="0.25">
-      <c r="E47" s="7"/>
-      <c r="F47" s="13"/>
-      <c r="G47" s="2"/>
-      <c r="H47" s="2"/>
-      <c r="I47" s="2"/>
-      <c r="J47" s="2"/>
-      <c r="K47" s="2"/>
-      <c r="L47" s="2"/>
-      <c r="M47" s="2"/>
-      <c r="N47" s="2"/>
-      <c r="O47" s="2"/>
+      <c r="G52" s="58"/>
+      <c r="H52" s="62"/>
+      <c r="I52" s="49"/>
+      <c r="J52" s="59"/>
+      <c r="K52" s="59"/>
+      <c r="L52" s="59"/>
+      <c r="M52" s="59"/>
+      <c r="N52" s="59"/>
+      <c r="O52" s="59"/>
+      <c r="P52" s="59"/>
+    </row>
+    <row r="53" spans="5:16" x14ac:dyDescent="0.25">
+      <c r="E53" s="43"/>
+      <c r="F53" s="40"/>
+      <c r="G53" s="58"/>
+      <c r="H53" s="62"/>
+      <c r="I53" s="49"/>
+      <c r="J53" s="59"/>
+      <c r="K53" s="59"/>
+      <c r="L53" s="59"/>
+      <c r="M53" s="59"/>
+      <c r="N53" s="59"/>
+      <c r="O53" s="59"/>
+      <c r="P53" s="59"/>
+    </row>
+    <row r="54" spans="5:16" x14ac:dyDescent="0.25">
+      <c r="E54" s="44"/>
+      <c r="F54" s="41"/>
+      <c r="G54" s="58"/>
+      <c r="H54" s="62"/>
+      <c r="I54" s="50"/>
+      <c r="J54" s="59"/>
+      <c r="K54" s="59"/>
+      <c r="L54" s="59"/>
+      <c r="M54" s="59"/>
+      <c r="N54" s="59"/>
+      <c r="O54" s="59"/>
+      <c r="P54" s="59"/>
     </row>
   </sheetData>
-  <mergeCells count="25">
-    <mergeCell ref="E2:O2"/>
-    <mergeCell ref="I3:O3"/>
+  <mergeCells count="33">
+    <mergeCell ref="E49:E54"/>
+    <mergeCell ref="F49:F51"/>
+    <mergeCell ref="F52:F54"/>
+    <mergeCell ref="I3:I5"/>
+    <mergeCell ref="I6:I15"/>
+    <mergeCell ref="I16:I24"/>
+    <mergeCell ref="I25:I30"/>
+    <mergeCell ref="I31:I36"/>
+    <mergeCell ref="I37:I42"/>
+    <mergeCell ref="I43:I48"/>
+    <mergeCell ref="I49:I54"/>
+    <mergeCell ref="F6:F11"/>
+    <mergeCell ref="F16:F21"/>
+    <mergeCell ref="E37:E42"/>
+    <mergeCell ref="F37:F39"/>
+    <mergeCell ref="F40:F42"/>
+    <mergeCell ref="E43:E48"/>
+    <mergeCell ref="F43:F45"/>
+    <mergeCell ref="F46:F48"/>
+    <mergeCell ref="E25:E30"/>
+    <mergeCell ref="F25:F27"/>
+    <mergeCell ref="F28:F30"/>
+    <mergeCell ref="E31:E36"/>
+    <mergeCell ref="F31:F33"/>
+    <mergeCell ref="F34:F36"/>
+    <mergeCell ref="F13:F15"/>
+    <mergeCell ref="E6:E15"/>
+    <mergeCell ref="F22:F24"/>
+    <mergeCell ref="E16:E24"/>
+    <mergeCell ref="E2:P2"/>
+    <mergeCell ref="J3:P3"/>
     <mergeCell ref="H3:H5"/>
     <mergeCell ref="E3:G5"/>
-    <mergeCell ref="F6:F8"/>
-    <mergeCell ref="F9:F11"/>
-    <mergeCell ref="E6:E11"/>
-    <mergeCell ref="F12:F14"/>
-    <mergeCell ref="F15:F17"/>
-    <mergeCell ref="E12:E17"/>
-    <mergeCell ref="E18:E23"/>
-    <mergeCell ref="F18:F20"/>
-    <mergeCell ref="F21:F23"/>
-    <mergeCell ref="E24:E29"/>
-    <mergeCell ref="F24:F26"/>
-    <mergeCell ref="F27:F29"/>
-    <mergeCell ref="E30:E35"/>
-    <mergeCell ref="F30:F32"/>
-    <mergeCell ref="F33:F35"/>
-    <mergeCell ref="E36:E41"/>
-    <mergeCell ref="F36:F38"/>
-    <mergeCell ref="F39:F41"/>
-    <mergeCell ref="E42:E47"/>
-    <mergeCell ref="F42:F44"/>
-    <mergeCell ref="F45:F47"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" copies="0" r:id="rId1"/>
@@ -1927,38 +2258,38 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B3" s="14" t="s">
-        <v>4</v>
+      <c r="B3" s="4" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="9" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/7. Reference/Noi Dung Cong Viec 23.11/Huy Ngo/Master Design PLan.xlsx
+++ b/7. Reference/Noi Dung Cong Viec 23.11/Huy Ngo/Master Design PLan.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="71">
   <si>
     <t>TIME</t>
   </si>
@@ -233,6 +233,9 @@
   </si>
   <si>
     <t>24/12/2013</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Tạ Ngọc Thien Phú</t>
   </si>
 </sst>
 </file>
@@ -709,114 +712,6 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -828,24 +723,6 @@
     <xf numFmtId="0" fontId="4" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -857,18 +734,144 @@
     <xf numFmtId="14" fontId="1" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="10" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="10" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="1" fillId="10" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1225,11 +1228,11 @@
       <c r="D7" s="8"/>
     </row>
     <row r="8" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="22" t="s">
+      <c r="B8" s="33" t="s">
         <v>24</v>
       </c>
-      <c r="C8" s="23"/>
-      <c r="D8" s="24"/>
+      <c r="C8" s="34"/>
+      <c r="D8" s="35"/>
     </row>
     <row r="9" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B9" s="9"/>
@@ -1352,8 +1355,8 @@
   </sheetPr>
   <dimension ref="E2:P53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="J24" sqref="J24"/>
+    <sheetView tabSelected="1" topLeftCell="D10" workbookViewId="0">
+      <selection activeCell="I30" sqref="I30:I35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1374,63 +1377,63 @@
   </cols>
   <sheetData>
     <row r="2" spans="5:16" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E2" s="46" t="s">
+      <c r="E2" s="54" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="47"/>
-      <c r="G2" s="47"/>
-      <c r="H2" s="47"/>
-      <c r="I2" s="47"/>
-      <c r="J2" s="47"/>
-      <c r="K2" s="47"/>
-      <c r="L2" s="48"/>
-      <c r="M2" s="62"/>
-      <c r="N2" s="62"/>
-      <c r="O2" s="62"/>
-      <c r="P2" s="62"/>
+      <c r="F2" s="55"/>
+      <c r="G2" s="55"/>
+      <c r="H2" s="55"/>
+      <c r="I2" s="55"/>
+      <c r="J2" s="55"/>
+      <c r="K2" s="55"/>
+      <c r="L2" s="56"/>
+      <c r="M2" s="26"/>
+      <c r="N2" s="26"/>
+      <c r="O2" s="26"/>
+      <c r="P2" s="26"/>
     </row>
     <row r="3" spans="5:16" x14ac:dyDescent="0.25">
-      <c r="E3" s="52" t="s">
+      <c r="E3" s="48" t="s">
         <v>11</v>
       </c>
-      <c r="F3" s="53"/>
-      <c r="G3" s="53"/>
-      <c r="H3" s="49" t="s">
+      <c r="F3" s="49"/>
+      <c r="G3" s="49"/>
+      <c r="H3" s="45" t="s">
         <v>12</v>
       </c>
-      <c r="I3" s="34" t="s">
+      <c r="I3" s="66" t="s">
         <v>39</v>
       </c>
-      <c r="J3" s="63" t="s">
+      <c r="J3" s="57" t="s">
         <v>0</v>
       </c>
-      <c r="K3" s="64"/>
-      <c r="L3" s="67"/>
-      <c r="M3" s="59"/>
-      <c r="N3" s="59"/>
-      <c r="O3" s="59"/>
-      <c r="P3" s="59"/>
+      <c r="K3" s="58"/>
+      <c r="L3" s="59"/>
+      <c r="M3" s="23"/>
+      <c r="N3" s="23"/>
+      <c r="O3" s="23"/>
+      <c r="P3" s="23"/>
     </row>
     <row r="4" spans="5:16" x14ac:dyDescent="0.25">
-      <c r="E4" s="54"/>
-      <c r="F4" s="55"/>
-      <c r="G4" s="55"/>
-      <c r="H4" s="50"/>
-      <c r="I4" s="35"/>
-      <c r="J4" s="65"/>
-      <c r="K4" s="66"/>
-      <c r="L4" s="68"/>
-      <c r="M4" s="60"/>
-      <c r="N4" s="60"/>
-      <c r="O4" s="60"/>
-      <c r="P4" s="60"/>
+      <c r="E4" s="50"/>
+      <c r="F4" s="51"/>
+      <c r="G4" s="51"/>
+      <c r="H4" s="46"/>
+      <c r="I4" s="67"/>
+      <c r="J4" s="60"/>
+      <c r="K4" s="61"/>
+      <c r="L4" s="62"/>
+      <c r="M4" s="24"/>
+      <c r="N4" s="24"/>
+      <c r="O4" s="24"/>
+      <c r="P4" s="24"/>
     </row>
     <row r="5" spans="5:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E5" s="56"/>
-      <c r="F5" s="57"/>
-      <c r="G5" s="57"/>
-      <c r="H5" s="51"/>
-      <c r="I5" s="36"/>
+      <c r="E5" s="52"/>
+      <c r="F5" s="53"/>
+      <c r="G5" s="53"/>
+      <c r="H5" s="47"/>
+      <c r="I5" s="68"/>
       <c r="J5" s="2" t="s">
         <v>58</v>
       </c>
@@ -1440,16 +1443,16 @@
       <c r="L5" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="M5" s="61"/>
-      <c r="N5" s="61"/>
-      <c r="O5" s="61"/>
-      <c r="P5" s="61"/>
+      <c r="M5" s="25"/>
+      <c r="N5" s="25"/>
+      <c r="O5" s="25"/>
+      <c r="P5" s="25"/>
     </row>
     <row r="6" spans="5:16" x14ac:dyDescent="0.25">
-      <c r="E6" s="25" t="s">
+      <c r="E6" s="41" t="s">
         <v>13</v>
       </c>
-      <c r="F6" s="43" t="s">
+      <c r="F6" s="76" t="s">
         <v>2</v>
       </c>
       <c r="G6" s="18" t="s">
@@ -1458,142 +1461,142 @@
       <c r="H6" s="19" t="s">
         <v>50</v>
       </c>
-      <c r="I6" s="37" t="s">
+      <c r="I6" s="69" t="s">
         <v>41</v>
       </c>
-      <c r="J6" s="72" t="s">
+      <c r="J6" s="30" t="s">
         <v>61</v>
       </c>
-      <c r="K6" s="73">
+      <c r="K6" s="31">
         <v>41317</v>
       </c>
-      <c r="L6" s="73">
+      <c r="L6" s="31">
         <v>41317</v>
       </c>
-      <c r="M6" s="58"/>
-      <c r="N6" s="58"/>
-      <c r="O6" s="58"/>
-      <c r="P6" s="58"/>
+      <c r="M6" s="22"/>
+      <c r="N6" s="22"/>
+      <c r="O6" s="22"/>
+      <c r="P6" s="22"/>
     </row>
     <row r="7" spans="5:16" x14ac:dyDescent="0.25">
-      <c r="E7" s="26"/>
-      <c r="F7" s="44"/>
+      <c r="E7" s="42"/>
+      <c r="F7" s="77"/>
       <c r="G7" s="18" t="s">
         <v>43</v>
       </c>
       <c r="H7" s="19" t="s">
         <v>50</v>
       </c>
-      <c r="I7" s="38"/>
-      <c r="J7" s="72" t="s">
+      <c r="I7" s="70"/>
+      <c r="J7" s="30" t="s">
         <v>63</v>
       </c>
-      <c r="K7" s="72" t="s">
+      <c r="K7" s="30" t="s">
         <v>63</v>
       </c>
-      <c r="L7" s="72" t="s">
+      <c r="L7" s="30" t="s">
         <v>63</v>
       </c>
-      <c r="M7" s="58"/>
-      <c r="N7" s="58"/>
-      <c r="O7" s="58"/>
-      <c r="P7" s="58"/>
+      <c r="M7" s="22"/>
+      <c r="N7" s="22"/>
+      <c r="O7" s="22"/>
+      <c r="P7" s="22"/>
     </row>
     <row r="8" spans="5:16" x14ac:dyDescent="0.25">
-      <c r="E8" s="26"/>
-      <c r="F8" s="44"/>
+      <c r="E8" s="42"/>
+      <c r="F8" s="77"/>
       <c r="G8" s="18" t="s">
         <v>44</v>
       </c>
       <c r="H8" s="19" t="s">
         <v>50</v>
       </c>
-      <c r="I8" s="38"/>
-      <c r="J8" s="72" t="s">
+      <c r="I8" s="70"/>
+      <c r="J8" s="30" t="s">
         <v>64</v>
       </c>
-      <c r="K8" s="72" t="s">
+      <c r="K8" s="30" t="s">
         <v>64</v>
       </c>
-      <c r="L8" s="72" t="s">
+      <c r="L8" s="30" t="s">
         <v>64</v>
       </c>
-      <c r="M8" s="58"/>
-      <c r="N8" s="58"/>
-      <c r="O8" s="58"/>
-      <c r="P8" s="58"/>
+      <c r="M8" s="22"/>
+      <c r="N8" s="22"/>
+      <c r="O8" s="22"/>
+      <c r="P8" s="22"/>
     </row>
     <row r="9" spans="5:16" x14ac:dyDescent="0.25">
-      <c r="E9" s="26"/>
-      <c r="F9" s="44"/>
+      <c r="E9" s="42"/>
+      <c r="F9" s="77"/>
       <c r="G9" s="18" t="s">
         <v>45</v>
       </c>
       <c r="H9" s="19" t="s">
         <v>50</v>
       </c>
-      <c r="I9" s="38"/>
-      <c r="J9" s="72" t="s">
+      <c r="I9" s="70"/>
+      <c r="J9" s="30" t="s">
         <v>64</v>
       </c>
-      <c r="K9" s="73">
+      <c r="K9" s="31">
         <v>41345</v>
       </c>
-      <c r="L9" s="72"/>
-      <c r="M9" s="58"/>
-      <c r="N9" s="58"/>
-      <c r="O9" s="58"/>
-      <c r="P9" s="58"/>
+      <c r="L9" s="30"/>
+      <c r="M9" s="22"/>
+      <c r="N9" s="22"/>
+      <c r="O9" s="22"/>
+      <c r="P9" s="22"/>
     </row>
     <row r="10" spans="5:16" x14ac:dyDescent="0.25">
-      <c r="E10" s="26"/>
-      <c r="F10" s="44"/>
+      <c r="E10" s="42"/>
+      <c r="F10" s="77"/>
       <c r="G10" s="18" t="s">
         <v>46</v>
       </c>
       <c r="H10" s="19" t="s">
         <v>50</v>
       </c>
-      <c r="I10" s="38"/>
-      <c r="J10" s="73">
+      <c r="I10" s="70"/>
+      <c r="J10" s="31">
         <v>41345</v>
       </c>
-      <c r="K10" s="73">
+      <c r="K10" s="31">
         <v>41345</v>
       </c>
-      <c r="L10" s="73">
+      <c r="L10" s="31">
         <v>41345</v>
       </c>
-      <c r="M10" s="58"/>
-      <c r="N10" s="58"/>
-      <c r="O10" s="58"/>
-      <c r="P10" s="58"/>
+      <c r="M10" s="22"/>
+      <c r="N10" s="22"/>
+      <c r="O10" s="22"/>
+      <c r="P10" s="22"/>
     </row>
     <row r="11" spans="5:16" x14ac:dyDescent="0.25">
-      <c r="E11" s="26"/>
-      <c r="F11" s="44"/>
+      <c r="E11" s="42"/>
+      <c r="F11" s="77"/>
       <c r="G11" s="18" t="s">
         <v>47</v>
       </c>
       <c r="H11" s="19" t="s">
         <v>50</v>
       </c>
-      <c r="I11" s="38"/>
-      <c r="J11" s="73">
+      <c r="I11" s="70"/>
+      <c r="J11" s="31">
         <v>41559</v>
       </c>
-      <c r="K11" s="73">
+      <c r="K11" s="31">
         <v>41559</v>
       </c>
-      <c r="L11" s="72"/>
-      <c r="M11" s="58"/>
-      <c r="N11" s="58"/>
-      <c r="O11" s="58"/>
-      <c r="P11" s="58"/>
+      <c r="L11" s="30"/>
+      <c r="M11" s="22"/>
+      <c r="N11" s="22"/>
+      <c r="O11" s="22"/>
+      <c r="P11" s="22"/>
     </row>
     <row r="12" spans="5:16" x14ac:dyDescent="0.25">
-      <c r="E12" s="26"/>
-      <c r="F12" s="31" t="s">
+      <c r="E12" s="42"/>
+      <c r="F12" s="38" t="s">
         <v>1</v>
       </c>
       <c r="G12" s="18" t="s">
@@ -1602,196 +1605,196 @@
       <c r="H12" s="19" t="s">
         <v>41</v>
       </c>
-      <c r="I12" s="38"/>
-      <c r="J12" s="72" t="s">
+      <c r="I12" s="70"/>
+      <c r="J12" s="30" t="s">
         <v>61</v>
       </c>
-      <c r="K12" s="72" t="s">
+      <c r="K12" s="30" t="s">
         <v>62</v>
       </c>
-      <c r="L12" s="72"/>
-      <c r="M12" s="58"/>
-      <c r="N12" s="58"/>
-      <c r="O12" s="58"/>
-      <c r="P12" s="58"/>
+      <c r="L12" s="30"/>
+      <c r="M12" s="22"/>
+      <c r="N12" s="22"/>
+      <c r="O12" s="22"/>
+      <c r="P12" s="22"/>
     </row>
     <row r="13" spans="5:16" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E13" s="26"/>
-      <c r="F13" s="32"/>
-      <c r="G13" s="70" t="s">
+      <c r="E13" s="42"/>
+      <c r="F13" s="39"/>
+      <c r="G13" s="28" t="s">
         <v>48</v>
       </c>
       <c r="H13" s="19" t="s">
         <v>41</v>
       </c>
-      <c r="I13" s="38"/>
-      <c r="J13" s="77">
+      <c r="I13" s="70"/>
+      <c r="J13" s="36">
         <v>41620</v>
       </c>
-      <c r="K13" s="77">
+      <c r="K13" s="36">
         <v>41620</v>
       </c>
-      <c r="L13" s="77"/>
-      <c r="M13" s="58"/>
-      <c r="N13" s="58"/>
-      <c r="O13" s="58"/>
-      <c r="P13" s="58"/>
+      <c r="L13" s="36"/>
+      <c r="M13" s="22"/>
+      <c r="N13" s="22"/>
+      <c r="O13" s="22"/>
+      <c r="P13" s="22"/>
     </row>
     <row r="14" spans="5:16" ht="5.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E14" s="27"/>
-      <c r="F14" s="74"/>
-      <c r="G14" s="75"/>
+      <c r="E14" s="43"/>
+      <c r="F14" s="40"/>
+      <c r="G14" s="32"/>
       <c r="H14" s="16"/>
-      <c r="I14" s="76"/>
-      <c r="J14" s="78"/>
-      <c r="K14" s="78"/>
-      <c r="L14" s="78"/>
-      <c r="M14" s="58"/>
-      <c r="N14" s="58"/>
-      <c r="O14" s="58"/>
-      <c r="P14" s="58"/>
+      <c r="I14" s="71"/>
+      <c r="J14" s="37"/>
+      <c r="K14" s="37"/>
+      <c r="L14" s="37"/>
+      <c r="M14" s="22"/>
+      <c r="N14" s="22"/>
+      <c r="O14" s="22"/>
+      <c r="P14" s="22"/>
     </row>
     <row r="15" spans="5:16" x14ac:dyDescent="0.25">
-      <c r="E15" s="25" t="s">
+      <c r="E15" s="41" t="s">
         <v>14</v>
       </c>
-      <c r="F15" s="43" t="s">
+      <c r="F15" s="76" t="s">
         <v>2</v>
       </c>
-      <c r="G15" s="69" t="s">
+      <c r="G15" s="27" t="s">
         <v>49</v>
       </c>
       <c r="H15" s="19" t="s">
         <v>50</v>
       </c>
-      <c r="I15" s="37" t="s">
+      <c r="I15" s="69" t="s">
         <v>41</v>
       </c>
-      <c r="J15" s="73">
+      <c r="J15" s="31">
         <v>41620</v>
       </c>
-      <c r="K15" s="73">
+      <c r="K15" s="31">
         <v>41620</v>
       </c>
-      <c r="L15" s="72"/>
-      <c r="M15" s="58"/>
-      <c r="N15" s="58"/>
-      <c r="O15" s="58"/>
-      <c r="P15" s="58"/>
+      <c r="L15" s="30"/>
+      <c r="M15" s="22"/>
+      <c r="N15" s="22"/>
+      <c r="O15" s="22"/>
+      <c r="P15" s="22"/>
     </row>
     <row r="16" spans="5:16" ht="63" x14ac:dyDescent="0.25">
-      <c r="E16" s="26"/>
-      <c r="F16" s="44"/>
+      <c r="E16" s="42"/>
+      <c r="F16" s="77"/>
       <c r="G16" s="20" t="s">
         <v>53</v>
       </c>
       <c r="H16" s="19" t="s">
         <v>50</v>
       </c>
-      <c r="I16" s="38"/>
-      <c r="J16" s="73">
+      <c r="I16" s="70"/>
+      <c r="J16" s="31">
         <v>41620</v>
       </c>
-      <c r="K16" s="72" t="s">
+      <c r="K16" s="30" t="s">
         <v>66</v>
       </c>
-      <c r="L16" s="72"/>
-      <c r="M16" s="58"/>
-      <c r="N16" s="58"/>
-      <c r="O16" s="58"/>
-      <c r="P16" s="58"/>
+      <c r="L16" s="30"/>
+      <c r="M16" s="22"/>
+      <c r="N16" s="22"/>
+      <c r="O16" s="22"/>
+      <c r="P16" s="22"/>
     </row>
     <row r="17" spans="5:16" x14ac:dyDescent="0.25">
-      <c r="E17" s="26"/>
-      <c r="F17" s="44"/>
+      <c r="E17" s="42"/>
+      <c r="F17" s="77"/>
       <c r="G17" s="17" t="s">
         <v>44</v>
       </c>
       <c r="H17" s="19" t="s">
         <v>50</v>
       </c>
-      <c r="I17" s="38"/>
-      <c r="J17" s="72" t="s">
+      <c r="I17" s="70"/>
+      <c r="J17" s="30" t="s">
         <v>66</v>
       </c>
-      <c r="K17" s="72" t="s">
+      <c r="K17" s="30" t="s">
         <v>66</v>
       </c>
-      <c r="L17" s="72"/>
-      <c r="M17" s="58"/>
-      <c r="N17" s="58"/>
-      <c r="O17" s="58"/>
-      <c r="P17" s="58"/>
+      <c r="L17" s="30"/>
+      <c r="M17" s="22"/>
+      <c r="N17" s="22"/>
+      <c r="O17" s="22"/>
+      <c r="P17" s="22"/>
     </row>
     <row r="18" spans="5:16" x14ac:dyDescent="0.25">
-      <c r="E18" s="26"/>
-      <c r="F18" s="44"/>
+      <c r="E18" s="42"/>
+      <c r="F18" s="77"/>
       <c r="G18" s="17" t="s">
         <v>54</v>
       </c>
       <c r="H18" s="19" t="s">
         <v>50</v>
       </c>
-      <c r="I18" s="38"/>
-      <c r="J18" s="72" t="s">
+      <c r="I18" s="70"/>
+      <c r="J18" s="30" t="s">
         <v>67</v>
       </c>
-      <c r="K18" s="72" t="s">
+      <c r="K18" s="30" t="s">
         <v>67</v>
       </c>
-      <c r="L18" s="72"/>
-      <c r="M18" s="58"/>
-      <c r="N18" s="58"/>
-      <c r="O18" s="58"/>
-      <c r="P18" s="58"/>
+      <c r="L18" s="30"/>
+      <c r="M18" s="22"/>
+      <c r="N18" s="22"/>
+      <c r="O18" s="22"/>
+      <c r="P18" s="22"/>
     </row>
     <row r="19" spans="5:16" x14ac:dyDescent="0.25">
-      <c r="E19" s="26"/>
-      <c r="F19" s="44"/>
+      <c r="E19" s="42"/>
+      <c r="F19" s="77"/>
       <c r="G19" s="17" t="s">
         <v>55</v>
       </c>
       <c r="H19" s="19" t="s">
         <v>50</v>
       </c>
-      <c r="I19" s="38"/>
-      <c r="J19" s="72" t="s">
+      <c r="I19" s="70"/>
+      <c r="J19" s="30" t="s">
         <v>68</v>
       </c>
-      <c r="K19" s="72" t="s">
+      <c r="K19" s="30" t="s">
         <v>68</v>
       </c>
-      <c r="L19" s="72"/>
-      <c r="M19" s="58"/>
-      <c r="N19" s="58"/>
-      <c r="O19" s="58"/>
-      <c r="P19" s="58"/>
+      <c r="L19" s="30"/>
+      <c r="M19" s="22"/>
+      <c r="N19" s="22"/>
+      <c r="O19" s="22"/>
+      <c r="P19" s="22"/>
     </row>
     <row r="20" spans="5:16" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="E20" s="26"/>
-      <c r="F20" s="45"/>
+      <c r="E20" s="42"/>
+      <c r="F20" s="78"/>
       <c r="G20" s="21" t="s">
         <v>56</v>
       </c>
       <c r="H20" s="19" t="s">
         <v>50</v>
       </c>
-      <c r="I20" s="38"/>
-      <c r="J20" s="72" t="s">
+      <c r="I20" s="70"/>
+      <c r="J20" s="30" t="s">
         <v>69</v>
       </c>
-      <c r="K20" s="72" t="s">
+      <c r="K20" s="30" t="s">
         <v>69</v>
       </c>
-      <c r="L20" s="72"/>
-      <c r="M20" s="58"/>
-      <c r="N20" s="58"/>
-      <c r="O20" s="58"/>
-      <c r="P20" s="58"/>
+      <c r="L20" s="30"/>
+      <c r="M20" s="22"/>
+      <c r="N20" s="22"/>
+      <c r="O20" s="22"/>
+      <c r="P20" s="22"/>
     </row>
     <row r="21" spans="5:16" x14ac:dyDescent="0.25">
-      <c r="E21" s="26"/>
-      <c r="F21" s="31" t="s">
+      <c r="E21" s="42"/>
+      <c r="F21" s="38" t="s">
         <v>1</v>
       </c>
       <c r="G21" s="17" t="s">
@@ -1800,527 +1803,509 @@
       <c r="H21" s="19" t="s">
         <v>50</v>
       </c>
-      <c r="I21" s="38"/>
-      <c r="J21" s="73">
+      <c r="I21" s="70"/>
+      <c r="J21" s="31">
         <v>41619</v>
       </c>
-      <c r="K21" s="72" t="s">
+      <c r="K21" s="30" t="s">
         <v>65</v>
       </c>
-      <c r="L21" s="72"/>
-      <c r="M21" s="58"/>
-      <c r="N21" s="58"/>
-      <c r="O21" s="58"/>
-      <c r="P21" s="58"/>
+      <c r="L21" s="30"/>
+      <c r="M21" s="22"/>
+      <c r="N21" s="22"/>
+      <c r="O21" s="22"/>
+      <c r="P21" s="22"/>
     </row>
     <row r="22" spans="5:16" x14ac:dyDescent="0.25">
-      <c r="E22" s="26"/>
-      <c r="F22" s="32"/>
-      <c r="G22" s="71" t="s">
+      <c r="E22" s="42"/>
+      <c r="F22" s="39"/>
+      <c r="G22" s="29" t="s">
         <v>52</v>
       </c>
       <c r="H22" s="19" t="s">
         <v>50</v>
       </c>
-      <c r="I22" s="38"/>
-      <c r="J22" s="73">
+      <c r="I22" s="70"/>
+      <c r="J22" s="31">
         <v>41619</v>
       </c>
-      <c r="K22" s="72" t="s">
+      <c r="K22" s="30" t="s">
         <v>65</v>
       </c>
-      <c r="L22" s="72"/>
-      <c r="M22" s="58"/>
-      <c r="N22" s="58"/>
-      <c r="O22" s="58"/>
-      <c r="P22" s="58"/>
+      <c r="L22" s="30"/>
+      <c r="M22" s="22"/>
+      <c r="N22" s="22"/>
+      <c r="O22" s="22"/>
+      <c r="P22" s="22"/>
     </row>
     <row r="23" spans="5:16" x14ac:dyDescent="0.25">
-      <c r="E23" s="27"/>
-      <c r="F23" s="33"/>
+      <c r="E23" s="43"/>
+      <c r="F23" s="44"/>
       <c r="G23" s="18"/>
       <c r="H23" s="19"/>
-      <c r="I23" s="39"/>
-      <c r="J23" s="72"/>
-      <c r="K23" s="72"/>
-      <c r="L23" s="72"/>
-      <c r="M23" s="58"/>
-      <c r="N23" s="58"/>
-      <c r="O23" s="58"/>
-      <c r="P23" s="58"/>
+      <c r="I23" s="72"/>
+      <c r="J23" s="30"/>
+      <c r="K23" s="30"/>
+      <c r="L23" s="30"/>
+      <c r="M23" s="22"/>
+      <c r="N23" s="22"/>
+      <c r="O23" s="22"/>
+      <c r="P23" s="22"/>
     </row>
     <row r="24" spans="5:16" x14ac:dyDescent="0.25">
-      <c r="E24" s="25" t="s">
+      <c r="E24" s="41" t="s">
         <v>15</v>
       </c>
-      <c r="F24" s="28" t="s">
+      <c r="F24" s="63" t="s">
         <v>2</v>
       </c>
       <c r="G24" s="18"/>
       <c r="H24" s="19"/>
-      <c r="I24" s="40"/>
-      <c r="J24" s="72"/>
-      <c r="K24" s="72"/>
-      <c r="L24" s="72"/>
-      <c r="M24" s="58"/>
-      <c r="N24" s="58"/>
-      <c r="O24" s="58"/>
-      <c r="P24" s="58"/>
+      <c r="I24" s="69" t="s">
+        <v>70</v>
+      </c>
+      <c r="J24" s="30"/>
+      <c r="K24" s="30"/>
+      <c r="L24" s="30"/>
+      <c r="M24" s="22"/>
+      <c r="N24" s="22"/>
+      <c r="O24" s="22"/>
+      <c r="P24" s="22"/>
     </row>
     <row r="25" spans="5:16" x14ac:dyDescent="0.25">
-      <c r="E25" s="26"/>
-      <c r="F25" s="29"/>
+      <c r="E25" s="42"/>
+      <c r="F25" s="64"/>
       <c r="G25" s="18"/>
       <c r="H25" s="19"/>
-      <c r="I25" s="41"/>
-      <c r="J25" s="72"/>
-      <c r="K25" s="72"/>
-      <c r="L25" s="72"/>
-      <c r="M25" s="58"/>
-      <c r="N25" s="58"/>
-      <c r="O25" s="58"/>
-      <c r="P25" s="58"/>
+      <c r="I25" s="70"/>
+      <c r="J25" s="30"/>
+      <c r="K25" s="30"/>
+      <c r="L25" s="30"/>
+      <c r="M25" s="22"/>
+      <c r="N25" s="22"/>
+      <c r="O25" s="22"/>
+      <c r="P25" s="22"/>
     </row>
     <row r="26" spans="5:16" x14ac:dyDescent="0.25">
-      <c r="E26" s="26"/>
-      <c r="F26" s="30"/>
+      <c r="E26" s="42"/>
+      <c r="F26" s="65"/>
       <c r="G26" s="18"/>
       <c r="H26" s="19"/>
-      <c r="I26" s="41"/>
-      <c r="J26" s="72"/>
-      <c r="K26" s="72"/>
-      <c r="L26" s="72"/>
-      <c r="M26" s="58"/>
-      <c r="N26" s="58"/>
-      <c r="O26" s="58"/>
-      <c r="P26" s="58"/>
+      <c r="I26" s="70"/>
+      <c r="J26" s="30"/>
+      <c r="K26" s="30"/>
+      <c r="L26" s="30"/>
+      <c r="M26" s="22"/>
+      <c r="N26" s="22"/>
+      <c r="O26" s="22"/>
+      <c r="P26" s="22"/>
     </row>
     <row r="27" spans="5:16" x14ac:dyDescent="0.25">
-      <c r="E27" s="26"/>
-      <c r="F27" s="31" t="s">
+      <c r="E27" s="42"/>
+      <c r="F27" s="38" t="s">
         <v>1</v>
       </c>
       <c r="G27" s="18"/>
       <c r="H27" s="19"/>
-      <c r="I27" s="41"/>
-      <c r="J27" s="72"/>
-      <c r="K27" s="72"/>
-      <c r="L27" s="72"/>
-      <c r="M27" s="58"/>
-      <c r="N27" s="58"/>
-      <c r="O27" s="58"/>
-      <c r="P27" s="58"/>
+      <c r="I27" s="70"/>
+      <c r="J27" s="30"/>
+      <c r="K27" s="30"/>
+      <c r="L27" s="30"/>
+      <c r="M27" s="22"/>
+      <c r="N27" s="22"/>
+      <c r="O27" s="22"/>
+      <c r="P27" s="22"/>
     </row>
     <row r="28" spans="5:16" x14ac:dyDescent="0.25">
-      <c r="E28" s="26"/>
-      <c r="F28" s="32"/>
+      <c r="E28" s="42"/>
+      <c r="F28" s="39"/>
       <c r="G28" s="18"/>
       <c r="H28" s="19"/>
-      <c r="I28" s="41"/>
-      <c r="J28" s="72"/>
-      <c r="K28" s="72"/>
-      <c r="L28" s="72"/>
-      <c r="M28" s="58"/>
-      <c r="N28" s="58"/>
-      <c r="O28" s="58"/>
-      <c r="P28" s="58"/>
+      <c r="I28" s="70"/>
+      <c r="J28" s="30"/>
+      <c r="K28" s="30"/>
+      <c r="L28" s="30"/>
+      <c r="M28" s="22"/>
+      <c r="N28" s="22"/>
+      <c r="O28" s="22"/>
+      <c r="P28" s="22"/>
     </row>
     <row r="29" spans="5:16" x14ac:dyDescent="0.25">
-      <c r="E29" s="27"/>
-      <c r="F29" s="33"/>
+      <c r="E29" s="43"/>
+      <c r="F29" s="44"/>
       <c r="G29" s="18"/>
       <c r="H29" s="19"/>
-      <c r="I29" s="42"/>
-      <c r="J29" s="72"/>
-      <c r="K29" s="72"/>
-      <c r="L29" s="72"/>
-      <c r="M29" s="58"/>
-      <c r="N29" s="58"/>
-      <c r="O29" s="58"/>
-      <c r="P29" s="58"/>
+      <c r="I29" s="72"/>
+      <c r="J29" s="30"/>
+      <c r="K29" s="30"/>
+      <c r="L29" s="30"/>
+      <c r="M29" s="22"/>
+      <c r="N29" s="22"/>
+      <c r="O29" s="22"/>
+      <c r="P29" s="22"/>
     </row>
     <row r="30" spans="5:16" x14ac:dyDescent="0.25">
-      <c r="E30" s="25" t="s">
+      <c r="E30" s="41" t="s">
         <v>16</v>
       </c>
-      <c r="F30" s="28" t="s">
+      <c r="F30" s="63" t="s">
         <v>2</v>
       </c>
       <c r="G30" s="18"/>
       <c r="H30" s="19"/>
-      <c r="I30" s="40"/>
-      <c r="J30" s="72"/>
-      <c r="K30" s="72"/>
-      <c r="L30" s="72"/>
-      <c r="M30" s="58"/>
-      <c r="N30" s="58"/>
-      <c r="O30" s="58"/>
-      <c r="P30" s="58"/>
+      <c r="I30" s="73"/>
+      <c r="J30" s="30"/>
+      <c r="K30" s="30"/>
+      <c r="L30" s="30"/>
+      <c r="M30" s="22"/>
+      <c r="N30" s="22"/>
+      <c r="O30" s="22"/>
+      <c r="P30" s="22"/>
     </row>
     <row r="31" spans="5:16" x14ac:dyDescent="0.25">
-      <c r="E31" s="26"/>
-      <c r="F31" s="29"/>
+      <c r="E31" s="42"/>
+      <c r="F31" s="64"/>
       <c r="G31" s="18"/>
       <c r="H31" s="19"/>
-      <c r="I31" s="41"/>
-      <c r="J31" s="72"/>
-      <c r="K31" s="72"/>
-      <c r="L31" s="72"/>
-      <c r="M31" s="58"/>
-      <c r="N31" s="58"/>
-      <c r="O31" s="58"/>
-      <c r="P31" s="58"/>
+      <c r="I31" s="74"/>
+      <c r="J31" s="30"/>
+      <c r="K31" s="30"/>
+      <c r="L31" s="30"/>
+      <c r="M31" s="22"/>
+      <c r="N31" s="22"/>
+      <c r="O31" s="22"/>
+      <c r="P31" s="22"/>
     </row>
     <row r="32" spans="5:16" x14ac:dyDescent="0.25">
-      <c r="E32" s="26"/>
-      <c r="F32" s="30"/>
+      <c r="E32" s="42"/>
+      <c r="F32" s="65"/>
       <c r="G32" s="18"/>
       <c r="H32" s="19"/>
-      <c r="I32" s="41"/>
-      <c r="J32" s="72"/>
-      <c r="K32" s="72"/>
-      <c r="L32" s="72"/>
-      <c r="M32" s="58"/>
-      <c r="N32" s="58"/>
-      <c r="O32" s="58"/>
-      <c r="P32" s="58"/>
+      <c r="I32" s="74"/>
+      <c r="J32" s="30"/>
+      <c r="K32" s="30"/>
+      <c r="L32" s="30"/>
+      <c r="M32" s="22"/>
+      <c r="N32" s="22"/>
+      <c r="O32" s="22"/>
+      <c r="P32" s="22"/>
     </row>
     <row r="33" spans="5:16" x14ac:dyDescent="0.25">
-      <c r="E33" s="26"/>
-      <c r="F33" s="31" t="s">
+      <c r="E33" s="42"/>
+      <c r="F33" s="38" t="s">
         <v>1</v>
       </c>
       <c r="G33" s="18"/>
       <c r="H33" s="19"/>
-      <c r="I33" s="41"/>
-      <c r="J33" s="72"/>
-      <c r="K33" s="72"/>
-      <c r="L33" s="72"/>
-      <c r="M33" s="58"/>
-      <c r="N33" s="58"/>
-      <c r="O33" s="58"/>
-      <c r="P33" s="58"/>
+      <c r="I33" s="74"/>
+      <c r="J33" s="30"/>
+      <c r="K33" s="30"/>
+      <c r="L33" s="30"/>
+      <c r="M33" s="22"/>
+      <c r="N33" s="22"/>
+      <c r="O33" s="22"/>
+      <c r="P33" s="22"/>
     </row>
     <row r="34" spans="5:16" x14ac:dyDescent="0.25">
-      <c r="E34" s="26"/>
-      <c r="F34" s="32"/>
+      <c r="E34" s="42"/>
+      <c r="F34" s="39"/>
       <c r="G34" s="18"/>
       <c r="H34" s="19"/>
-      <c r="I34" s="41"/>
-      <c r="J34" s="72"/>
-      <c r="K34" s="72"/>
-      <c r="L34" s="72"/>
-      <c r="M34" s="58"/>
-      <c r="N34" s="58"/>
-      <c r="O34" s="58"/>
-      <c r="P34" s="58"/>
+      <c r="I34" s="74"/>
+      <c r="J34" s="30"/>
+      <c r="K34" s="30"/>
+      <c r="L34" s="30"/>
+      <c r="M34" s="22"/>
+      <c r="N34" s="22"/>
+      <c r="O34" s="22"/>
+      <c r="P34" s="22"/>
     </row>
     <row r="35" spans="5:16" x14ac:dyDescent="0.25">
-      <c r="E35" s="27"/>
-      <c r="F35" s="33"/>
+      <c r="E35" s="43"/>
+      <c r="F35" s="44"/>
       <c r="G35" s="18"/>
       <c r="H35" s="19"/>
-      <c r="I35" s="42"/>
-      <c r="J35" s="72"/>
-      <c r="K35" s="72"/>
-      <c r="L35" s="72"/>
-      <c r="M35" s="58"/>
-      <c r="N35" s="58"/>
-      <c r="O35" s="58"/>
-      <c r="P35" s="58"/>
+      <c r="I35" s="75"/>
+      <c r="J35" s="30"/>
+      <c r="K35" s="30"/>
+      <c r="L35" s="30"/>
+      <c r="M35" s="22"/>
+      <c r="N35" s="22"/>
+      <c r="O35" s="22"/>
+      <c r="P35" s="22"/>
     </row>
     <row r="36" spans="5:16" x14ac:dyDescent="0.25">
-      <c r="E36" s="25" t="s">
+      <c r="E36" s="41" t="s">
         <v>17</v>
       </c>
-      <c r="F36" s="28" t="s">
+      <c r="F36" s="63" t="s">
         <v>2</v>
       </c>
       <c r="G36" s="18"/>
       <c r="H36" s="19"/>
-      <c r="I36" s="40"/>
-      <c r="J36" s="72"/>
-      <c r="K36" s="72"/>
-      <c r="L36" s="72"/>
-      <c r="M36" s="58"/>
-      <c r="N36" s="58"/>
-      <c r="O36" s="58"/>
-      <c r="P36" s="58"/>
+      <c r="I36" s="73"/>
+      <c r="J36" s="30"/>
+      <c r="K36" s="30"/>
+      <c r="L36" s="30"/>
+      <c r="M36" s="22"/>
+      <c r="N36" s="22"/>
+      <c r="O36" s="22"/>
+      <c r="P36" s="22"/>
     </row>
     <row r="37" spans="5:16" x14ac:dyDescent="0.25">
-      <c r="E37" s="26"/>
-      <c r="F37" s="29"/>
+      <c r="E37" s="42"/>
+      <c r="F37" s="64"/>
       <c r="G37" s="18"/>
       <c r="H37" s="19"/>
-      <c r="I37" s="41"/>
-      <c r="J37" s="72"/>
-      <c r="K37" s="72"/>
-      <c r="L37" s="72"/>
-      <c r="M37" s="58"/>
-      <c r="N37" s="58"/>
-      <c r="O37" s="58"/>
-      <c r="P37" s="58"/>
+      <c r="I37" s="74"/>
+      <c r="J37" s="30"/>
+      <c r="K37" s="30"/>
+      <c r="L37" s="30"/>
+      <c r="M37" s="22"/>
+      <c r="N37" s="22"/>
+      <c r="O37" s="22"/>
+      <c r="P37" s="22"/>
     </row>
     <row r="38" spans="5:16" x14ac:dyDescent="0.25">
-      <c r="E38" s="26"/>
-      <c r="F38" s="30"/>
+      <c r="E38" s="42"/>
+      <c r="F38" s="65"/>
       <c r="G38" s="18"/>
       <c r="H38" s="19"/>
-      <c r="I38" s="41"/>
-      <c r="J38" s="72"/>
-      <c r="K38" s="72"/>
-      <c r="L38" s="72"/>
-      <c r="M38" s="58"/>
-      <c r="N38" s="58"/>
-      <c r="O38" s="58"/>
-      <c r="P38" s="58"/>
+      <c r="I38" s="74"/>
+      <c r="J38" s="30"/>
+      <c r="K38" s="30"/>
+      <c r="L38" s="30"/>
+      <c r="M38" s="22"/>
+      <c r="N38" s="22"/>
+      <c r="O38" s="22"/>
+      <c r="P38" s="22"/>
     </row>
     <row r="39" spans="5:16" x14ac:dyDescent="0.25">
-      <c r="E39" s="26"/>
-      <c r="F39" s="31" t="s">
+      <c r="E39" s="42"/>
+      <c r="F39" s="38" t="s">
         <v>1</v>
       </c>
       <c r="G39" s="18"/>
       <c r="H39" s="19"/>
-      <c r="I39" s="41"/>
-      <c r="J39" s="72"/>
-      <c r="K39" s="72"/>
-      <c r="L39" s="72"/>
-      <c r="M39" s="58"/>
-      <c r="N39" s="58"/>
-      <c r="O39" s="58"/>
-      <c r="P39" s="58"/>
+      <c r="I39" s="74"/>
+      <c r="J39" s="30"/>
+      <c r="K39" s="30"/>
+      <c r="L39" s="30"/>
+      <c r="M39" s="22"/>
+      <c r="N39" s="22"/>
+      <c r="O39" s="22"/>
+      <c r="P39" s="22"/>
     </row>
     <row r="40" spans="5:16" x14ac:dyDescent="0.25">
-      <c r="E40" s="26"/>
-      <c r="F40" s="32"/>
+      <c r="E40" s="42"/>
+      <c r="F40" s="39"/>
       <c r="G40" s="18"/>
       <c r="H40" s="19"/>
-      <c r="I40" s="41"/>
-      <c r="J40" s="72"/>
-      <c r="K40" s="72"/>
-      <c r="L40" s="72"/>
-      <c r="M40" s="58"/>
-      <c r="N40" s="58"/>
-      <c r="O40" s="58"/>
-      <c r="P40" s="58"/>
+      <c r="I40" s="74"/>
+      <c r="J40" s="30"/>
+      <c r="K40" s="30"/>
+      <c r="L40" s="30"/>
+      <c r="M40" s="22"/>
+      <c r="N40" s="22"/>
+      <c r="O40" s="22"/>
+      <c r="P40" s="22"/>
     </row>
     <row r="41" spans="5:16" x14ac:dyDescent="0.25">
-      <c r="E41" s="27"/>
-      <c r="F41" s="33"/>
+      <c r="E41" s="43"/>
+      <c r="F41" s="44"/>
       <c r="G41" s="18"/>
       <c r="H41" s="19"/>
-      <c r="I41" s="42"/>
-      <c r="J41" s="72"/>
-      <c r="K41" s="72"/>
-      <c r="L41" s="72"/>
-      <c r="M41" s="58"/>
-      <c r="N41" s="58"/>
-      <c r="O41" s="58"/>
-      <c r="P41" s="58"/>
+      <c r="I41" s="75"/>
+      <c r="J41" s="30"/>
+      <c r="K41" s="30"/>
+      <c r="L41" s="30"/>
+      <c r="M41" s="22"/>
+      <c r="N41" s="22"/>
+      <c r="O41" s="22"/>
+      <c r="P41" s="22"/>
     </row>
     <row r="42" spans="5:16" x14ac:dyDescent="0.25">
-      <c r="E42" s="25" t="s">
+      <c r="E42" s="41" t="s">
         <v>18</v>
       </c>
-      <c r="F42" s="28" t="s">
+      <c r="F42" s="63" t="s">
         <v>2</v>
       </c>
       <c r="G42" s="18"/>
       <c r="H42" s="19"/>
-      <c r="I42" s="40"/>
-      <c r="J42" s="72"/>
-      <c r="K42" s="72"/>
-      <c r="L42" s="72"/>
-      <c r="M42" s="58"/>
-      <c r="N42" s="58"/>
-      <c r="O42" s="58"/>
-      <c r="P42" s="58"/>
+      <c r="I42" s="73"/>
+      <c r="J42" s="30"/>
+      <c r="K42" s="30"/>
+      <c r="L42" s="30"/>
+      <c r="M42" s="22"/>
+      <c r="N42" s="22"/>
+      <c r="O42" s="22"/>
+      <c r="P42" s="22"/>
     </row>
     <row r="43" spans="5:16" x14ac:dyDescent="0.25">
-      <c r="E43" s="26"/>
-      <c r="F43" s="29"/>
+      <c r="E43" s="42"/>
+      <c r="F43" s="64"/>
       <c r="G43" s="18"/>
       <c r="H43" s="19"/>
-      <c r="I43" s="41"/>
-      <c r="J43" s="72"/>
-      <c r="K43" s="72"/>
-      <c r="L43" s="72"/>
-      <c r="M43" s="58"/>
-      <c r="N43" s="58"/>
-      <c r="O43" s="58"/>
-      <c r="P43" s="58"/>
+      <c r="I43" s="74"/>
+      <c r="J43" s="30"/>
+      <c r="K43" s="30"/>
+      <c r="L43" s="30"/>
+      <c r="M43" s="22"/>
+      <c r="N43" s="22"/>
+      <c r="O43" s="22"/>
+      <c r="P43" s="22"/>
     </row>
     <row r="44" spans="5:16" x14ac:dyDescent="0.25">
-      <c r="E44" s="26"/>
-      <c r="F44" s="30"/>
+      <c r="E44" s="42"/>
+      <c r="F44" s="65"/>
       <c r="G44" s="18"/>
       <c r="H44" s="19"/>
-      <c r="I44" s="41"/>
-      <c r="J44" s="72"/>
-      <c r="K44" s="72"/>
-      <c r="L44" s="72"/>
-      <c r="M44" s="58"/>
-      <c r="N44" s="58"/>
-      <c r="O44" s="58"/>
-      <c r="P44" s="58"/>
+      <c r="I44" s="74"/>
+      <c r="J44" s="30"/>
+      <c r="K44" s="30"/>
+      <c r="L44" s="30"/>
+      <c r="M44" s="22"/>
+      <c r="N44" s="22"/>
+      <c r="O44" s="22"/>
+      <c r="P44" s="22"/>
     </row>
     <row r="45" spans="5:16" x14ac:dyDescent="0.25">
-      <c r="E45" s="26"/>
-      <c r="F45" s="31" t="s">
+      <c r="E45" s="42"/>
+      <c r="F45" s="38" t="s">
         <v>1</v>
       </c>
       <c r="G45" s="18"/>
       <c r="H45" s="19"/>
-      <c r="I45" s="41"/>
-      <c r="J45" s="72"/>
-      <c r="K45" s="72"/>
-      <c r="L45" s="72"/>
-      <c r="M45" s="58"/>
-      <c r="N45" s="58"/>
-      <c r="O45" s="58"/>
-      <c r="P45" s="58"/>
+      <c r="I45" s="74"/>
+      <c r="J45" s="30"/>
+      <c r="K45" s="30"/>
+      <c r="L45" s="30"/>
+      <c r="M45" s="22"/>
+      <c r="N45" s="22"/>
+      <c r="O45" s="22"/>
+      <c r="P45" s="22"/>
     </row>
     <row r="46" spans="5:16" x14ac:dyDescent="0.25">
-      <c r="E46" s="26"/>
-      <c r="F46" s="32"/>
+      <c r="E46" s="42"/>
+      <c r="F46" s="39"/>
       <c r="G46" s="18"/>
       <c r="H46" s="19"/>
-      <c r="I46" s="41"/>
-      <c r="J46" s="72"/>
-      <c r="K46" s="72"/>
-      <c r="L46" s="72"/>
-      <c r="M46" s="58"/>
-      <c r="N46" s="58"/>
-      <c r="O46" s="58"/>
-      <c r="P46" s="58"/>
+      <c r="I46" s="74"/>
+      <c r="J46" s="30"/>
+      <c r="K46" s="30"/>
+      <c r="L46" s="30"/>
+      <c r="M46" s="22"/>
+      <c r="N46" s="22"/>
+      <c r="O46" s="22"/>
+      <c r="P46" s="22"/>
     </row>
     <row r="47" spans="5:16" x14ac:dyDescent="0.25">
-      <c r="E47" s="27"/>
-      <c r="F47" s="33"/>
+      <c r="E47" s="43"/>
+      <c r="F47" s="44"/>
       <c r="G47" s="18"/>
       <c r="H47" s="19"/>
-      <c r="I47" s="42"/>
-      <c r="J47" s="72"/>
-      <c r="K47" s="72"/>
-      <c r="L47" s="72"/>
-      <c r="M47" s="58"/>
-      <c r="N47" s="58"/>
-      <c r="O47" s="58"/>
-      <c r="P47" s="58"/>
+      <c r="I47" s="75"/>
+      <c r="J47" s="30"/>
+      <c r="K47" s="30"/>
+      <c r="L47" s="30"/>
+      <c r="M47" s="22"/>
+      <c r="N47" s="22"/>
+      <c r="O47" s="22"/>
+      <c r="P47" s="22"/>
     </row>
     <row r="48" spans="5:16" x14ac:dyDescent="0.25">
-      <c r="E48" s="25" t="s">
+      <c r="E48" s="41" t="s">
         <v>19</v>
       </c>
-      <c r="F48" s="28" t="s">
+      <c r="F48" s="63" t="s">
         <v>2</v>
       </c>
       <c r="G48" s="18"/>
       <c r="H48" s="19"/>
-      <c r="I48" s="40"/>
-      <c r="J48" s="72"/>
-      <c r="K48" s="72"/>
-      <c r="L48" s="72"/>
-      <c r="M48" s="58"/>
-      <c r="N48" s="58"/>
-      <c r="O48" s="58"/>
-      <c r="P48" s="58"/>
+      <c r="I48" s="73"/>
+      <c r="J48" s="30"/>
+      <c r="K48" s="30"/>
+      <c r="L48" s="30"/>
+      <c r="M48" s="22"/>
+      <c r="N48" s="22"/>
+      <c r="O48" s="22"/>
+      <c r="P48" s="22"/>
     </row>
     <row r="49" spans="5:16" x14ac:dyDescent="0.25">
-      <c r="E49" s="26"/>
-      <c r="F49" s="29"/>
+      <c r="E49" s="42"/>
+      <c r="F49" s="64"/>
       <c r="G49" s="18"/>
       <c r="H49" s="19"/>
-      <c r="I49" s="41"/>
-      <c r="J49" s="72"/>
-      <c r="K49" s="72"/>
-      <c r="L49" s="72"/>
-      <c r="M49" s="58"/>
-      <c r="N49" s="58"/>
-      <c r="O49" s="58"/>
-      <c r="P49" s="58"/>
+      <c r="I49" s="74"/>
+      <c r="J49" s="30"/>
+      <c r="K49" s="30"/>
+      <c r="L49" s="30"/>
+      <c r="M49" s="22"/>
+      <c r="N49" s="22"/>
+      <c r="O49" s="22"/>
+      <c r="P49" s="22"/>
     </row>
     <row r="50" spans="5:16" x14ac:dyDescent="0.25">
-      <c r="E50" s="26"/>
-      <c r="F50" s="30"/>
+      <c r="E50" s="42"/>
+      <c r="F50" s="65"/>
       <c r="G50" s="18"/>
       <c r="H50" s="19"/>
-      <c r="I50" s="41"/>
-      <c r="J50" s="72"/>
-      <c r="K50" s="72"/>
-      <c r="L50" s="72"/>
-      <c r="M50" s="58"/>
-      <c r="N50" s="58"/>
-      <c r="O50" s="58"/>
-      <c r="P50" s="58"/>
+      <c r="I50" s="74"/>
+      <c r="J50" s="30"/>
+      <c r="K50" s="30"/>
+      <c r="L50" s="30"/>
+      <c r="M50" s="22"/>
+      <c r="N50" s="22"/>
+      <c r="O50" s="22"/>
+      <c r="P50" s="22"/>
     </row>
     <row r="51" spans="5:16" x14ac:dyDescent="0.25">
-      <c r="E51" s="26"/>
-      <c r="F51" s="31" t="s">
+      <c r="E51" s="42"/>
+      <c r="F51" s="38" t="s">
         <v>1</v>
       </c>
       <c r="G51" s="18"/>
       <c r="H51" s="19"/>
-      <c r="I51" s="41"/>
-      <c r="J51" s="72"/>
-      <c r="K51" s="72"/>
-      <c r="L51" s="72"/>
-      <c r="M51" s="58"/>
-      <c r="N51" s="58"/>
-      <c r="O51" s="58"/>
-      <c r="P51" s="58"/>
+      <c r="I51" s="74"/>
+      <c r="J51" s="30"/>
+      <c r="K51" s="30"/>
+      <c r="L51" s="30"/>
+      <c r="M51" s="22"/>
+      <c r="N51" s="22"/>
+      <c r="O51" s="22"/>
+      <c r="P51" s="22"/>
     </row>
     <row r="52" spans="5:16" x14ac:dyDescent="0.25">
-      <c r="E52" s="26"/>
-      <c r="F52" s="32"/>
+      <c r="E52" s="42"/>
+      <c r="F52" s="39"/>
       <c r="G52" s="18"/>
       <c r="H52" s="19"/>
-      <c r="I52" s="41"/>
-      <c r="J52" s="72"/>
-      <c r="K52" s="72"/>
-      <c r="L52" s="72"/>
-      <c r="M52" s="58"/>
-      <c r="N52" s="58"/>
-      <c r="O52" s="58"/>
-      <c r="P52" s="58"/>
+      <c r="I52" s="74"/>
+      <c r="J52" s="30"/>
+      <c r="K52" s="30"/>
+      <c r="L52" s="30"/>
+      <c r="M52" s="22"/>
+      <c r="N52" s="22"/>
+      <c r="O52" s="22"/>
+      <c r="P52" s="22"/>
     </row>
     <row r="53" spans="5:16" x14ac:dyDescent="0.25">
-      <c r="E53" s="27"/>
-      <c r="F53" s="33"/>
+      <c r="E53" s="43"/>
+      <c r="F53" s="44"/>
       <c r="G53" s="18"/>
       <c r="H53" s="19"/>
-      <c r="I53" s="42"/>
-      <c r="J53" s="72"/>
-      <c r="K53" s="72"/>
-      <c r="L53" s="72"/>
-      <c r="M53" s="58"/>
-      <c r="N53" s="58"/>
-      <c r="O53" s="58"/>
-      <c r="P53" s="58"/>
+      <c r="I53" s="75"/>
+      <c r="J53" s="30"/>
+      <c r="K53" s="30"/>
+      <c r="L53" s="30"/>
+      <c r="M53" s="22"/>
+      <c r="N53" s="22"/>
+      <c r="O53" s="22"/>
+      <c r="P53" s="22"/>
     </row>
   </sheetData>
   <mergeCells count="36">
-    <mergeCell ref="L13:L14"/>
-    <mergeCell ref="F12:F14"/>
-    <mergeCell ref="E6:E14"/>
-    <mergeCell ref="F21:F23"/>
-    <mergeCell ref="E15:E23"/>
-    <mergeCell ref="H3:H5"/>
-    <mergeCell ref="E3:G5"/>
-    <mergeCell ref="E2:L2"/>
-    <mergeCell ref="J3:L4"/>
-    <mergeCell ref="J13:J14"/>
-    <mergeCell ref="K13:K14"/>
-    <mergeCell ref="E42:E47"/>
-    <mergeCell ref="F42:F44"/>
-    <mergeCell ref="F45:F47"/>
-    <mergeCell ref="E24:E29"/>
-    <mergeCell ref="F24:F26"/>
-    <mergeCell ref="F27:F29"/>
-    <mergeCell ref="E30:E35"/>
-    <mergeCell ref="F30:F32"/>
-    <mergeCell ref="F33:F35"/>
     <mergeCell ref="E48:E53"/>
     <mergeCell ref="F48:F50"/>
     <mergeCell ref="F51:F53"/>
@@ -2337,6 +2322,26 @@
     <mergeCell ref="E36:E41"/>
     <mergeCell ref="F36:F38"/>
     <mergeCell ref="F39:F41"/>
+    <mergeCell ref="E42:E47"/>
+    <mergeCell ref="F42:F44"/>
+    <mergeCell ref="F45:F47"/>
+    <mergeCell ref="E24:E29"/>
+    <mergeCell ref="F24:F26"/>
+    <mergeCell ref="F27:F29"/>
+    <mergeCell ref="E30:E35"/>
+    <mergeCell ref="F30:F32"/>
+    <mergeCell ref="F33:F35"/>
+    <mergeCell ref="H3:H5"/>
+    <mergeCell ref="E3:G5"/>
+    <mergeCell ref="E2:L2"/>
+    <mergeCell ref="J3:L4"/>
+    <mergeCell ref="J13:J14"/>
+    <mergeCell ref="K13:K14"/>
+    <mergeCell ref="L13:L14"/>
+    <mergeCell ref="F12:F14"/>
+    <mergeCell ref="E6:E14"/>
+    <mergeCell ref="F21:F23"/>
+    <mergeCell ref="E15:E23"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" copies="0" r:id="rId1"/>

--- a/7. Reference/Noi Dung Cong Viec 23.11/Huy Ngo/Master Design PLan.xlsx
+++ b/7. Reference/Noi Dung Cong Viec 23.11/Huy Ngo/Master Design PLan.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="72">
   <si>
     <t>TIME</t>
   </si>
@@ -236,6 +236,9 @@
   </si>
   <si>
     <t xml:space="preserve"> Tạ Ngọc Thien Phú</t>
+  </si>
+  <si>
+    <t>Nguyễn Phan Xuân Huy</t>
   </si>
 </sst>
 </file>
@@ -744,86 +747,86 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="14" fontId="1" fillId="10" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1355,8 +1358,8 @@
   </sheetPr>
   <dimension ref="E2:P53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D10" workbookViewId="0">
-      <selection activeCell="I30" sqref="I30:I35"/>
+    <sheetView tabSelected="1" topLeftCell="D4" workbookViewId="0">
+      <selection activeCell="L13" sqref="L13:L14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1377,62 +1380,62 @@
   </cols>
   <sheetData>
     <row r="2" spans="5:16" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E2" s="54" t="s">
+      <c r="E2" s="51" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="55"/>
-      <c r="G2" s="55"/>
-      <c r="H2" s="55"/>
-      <c r="I2" s="55"/>
-      <c r="J2" s="55"/>
-      <c r="K2" s="55"/>
-      <c r="L2" s="56"/>
+      <c r="F2" s="52"/>
+      <c r="G2" s="52"/>
+      <c r="H2" s="52"/>
+      <c r="I2" s="52"/>
+      <c r="J2" s="52"/>
+      <c r="K2" s="52"/>
+      <c r="L2" s="53"/>
       <c r="M2" s="26"/>
       <c r="N2" s="26"/>
       <c r="O2" s="26"/>
       <c r="P2" s="26"/>
     </row>
     <row r="3" spans="5:16" x14ac:dyDescent="0.25">
-      <c r="E3" s="48" t="s">
+      <c r="E3" s="45" t="s">
         <v>11</v>
       </c>
-      <c r="F3" s="49"/>
-      <c r="G3" s="49"/>
-      <c r="H3" s="45" t="s">
+      <c r="F3" s="46"/>
+      <c r="G3" s="46"/>
+      <c r="H3" s="42" t="s">
         <v>12</v>
       </c>
       <c r="I3" s="66" t="s">
         <v>39</v>
       </c>
-      <c r="J3" s="57" t="s">
+      <c r="J3" s="54" t="s">
         <v>0</v>
       </c>
-      <c r="K3" s="58"/>
-      <c r="L3" s="59"/>
+      <c r="K3" s="55"/>
+      <c r="L3" s="56"/>
       <c r="M3" s="23"/>
       <c r="N3" s="23"/>
       <c r="O3" s="23"/>
       <c r="P3" s="23"/>
     </row>
     <row r="4" spans="5:16" x14ac:dyDescent="0.25">
-      <c r="E4" s="50"/>
-      <c r="F4" s="51"/>
-      <c r="G4" s="51"/>
-      <c r="H4" s="46"/>
+      <c r="E4" s="47"/>
+      <c r="F4" s="48"/>
+      <c r="G4" s="48"/>
+      <c r="H4" s="43"/>
       <c r="I4" s="67"/>
-      <c r="J4" s="60"/>
-      <c r="K4" s="61"/>
-      <c r="L4" s="62"/>
+      <c r="J4" s="57"/>
+      <c r="K4" s="58"/>
+      <c r="L4" s="59"/>
       <c r="M4" s="24"/>
       <c r="N4" s="24"/>
       <c r="O4" s="24"/>
       <c r="P4" s="24"/>
     </row>
     <row r="5" spans="5:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E5" s="52"/>
-      <c r="F5" s="53"/>
-      <c r="G5" s="53"/>
-      <c r="H5" s="47"/>
+      <c r="E5" s="49"/>
+      <c r="F5" s="50"/>
+      <c r="G5" s="50"/>
+      <c r="H5" s="44"/>
       <c r="I5" s="68"/>
       <c r="J5" s="2" t="s">
         <v>58</v>
@@ -1449,7 +1452,7 @@
       <c r="P5" s="25"/>
     </row>
     <row r="6" spans="5:16" x14ac:dyDescent="0.25">
-      <c r="E6" s="41" t="s">
+      <c r="E6" s="39" t="s">
         <v>13</v>
       </c>
       <c r="F6" s="76" t="s">
@@ -1479,7 +1482,7 @@
       <c r="P6" s="22"/>
     </row>
     <row r="7" spans="5:16" x14ac:dyDescent="0.25">
-      <c r="E7" s="42"/>
+      <c r="E7" s="40"/>
       <c r="F7" s="77"/>
       <c r="G7" s="18" t="s">
         <v>43</v>
@@ -1503,7 +1506,7 @@
       <c r="P7" s="22"/>
     </row>
     <row r="8" spans="5:16" x14ac:dyDescent="0.25">
-      <c r="E8" s="42"/>
+      <c r="E8" s="40"/>
       <c r="F8" s="77"/>
       <c r="G8" s="18" t="s">
         <v>44</v>
@@ -1527,7 +1530,7 @@
       <c r="P8" s="22"/>
     </row>
     <row r="9" spans="5:16" x14ac:dyDescent="0.25">
-      <c r="E9" s="42"/>
+      <c r="E9" s="40"/>
       <c r="F9" s="77"/>
       <c r="G9" s="18" t="s">
         <v>45</v>
@@ -1536,20 +1539,22 @@
         <v>50</v>
       </c>
       <c r="I9" s="70"/>
-      <c r="J9" s="30" t="s">
-        <v>64</v>
+      <c r="J9" s="31">
+        <v>41345</v>
       </c>
       <c r="K9" s="31">
         <v>41345</v>
       </c>
-      <c r="L9" s="30"/>
+      <c r="L9" s="31">
+        <v>41345</v>
+      </c>
       <c r="M9" s="22"/>
       <c r="N9" s="22"/>
       <c r="O9" s="22"/>
       <c r="P9" s="22"/>
     </row>
     <row r="10" spans="5:16" x14ac:dyDescent="0.25">
-      <c r="E10" s="42"/>
+      <c r="E10" s="40"/>
       <c r="F10" s="77"/>
       <c r="G10" s="18" t="s">
         <v>46</v>
@@ -1573,7 +1578,7 @@
       <c r="P10" s="22"/>
     </row>
     <row r="11" spans="5:16" x14ac:dyDescent="0.25">
-      <c r="E11" s="42"/>
+      <c r="E11" s="40"/>
       <c r="F11" s="77"/>
       <c r="G11" s="18" t="s">
         <v>47</v>
@@ -1595,8 +1600,8 @@
       <c r="P11" s="22"/>
     </row>
     <row r="12" spans="5:16" x14ac:dyDescent="0.25">
-      <c r="E12" s="42"/>
-      <c r="F12" s="38" t="s">
+      <c r="E12" s="40"/>
+      <c r="F12" s="36" t="s">
         <v>1</v>
       </c>
       <c r="G12" s="18" t="s">
@@ -1619,8 +1624,8 @@
       <c r="P12" s="22"/>
     </row>
     <row r="13" spans="5:16" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E13" s="42"/>
-      <c r="F13" s="39"/>
+      <c r="E13" s="40"/>
+      <c r="F13" s="37"/>
       <c r="G13" s="28" t="s">
         <v>48</v>
       </c>
@@ -1628,34 +1633,34 @@
         <v>41</v>
       </c>
       <c r="I13" s="70"/>
-      <c r="J13" s="36">
+      <c r="J13" s="60">
         <v>41620</v>
       </c>
-      <c r="K13" s="36">
+      <c r="K13" s="60">
         <v>41620</v>
       </c>
-      <c r="L13" s="36"/>
+      <c r="L13" s="60"/>
       <c r="M13" s="22"/>
       <c r="N13" s="22"/>
       <c r="O13" s="22"/>
       <c r="P13" s="22"/>
     </row>
     <row r="14" spans="5:16" ht="5.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E14" s="43"/>
-      <c r="F14" s="40"/>
+      <c r="E14" s="41"/>
+      <c r="F14" s="62"/>
       <c r="G14" s="32"/>
       <c r="H14" s="16"/>
       <c r="I14" s="71"/>
-      <c r="J14" s="37"/>
-      <c r="K14" s="37"/>
-      <c r="L14" s="37"/>
+      <c r="J14" s="61"/>
+      <c r="K14" s="61"/>
+      <c r="L14" s="61"/>
       <c r="M14" s="22"/>
       <c r="N14" s="22"/>
       <c r="O14" s="22"/>
       <c r="P14" s="22"/>
     </row>
     <row r="15" spans="5:16" x14ac:dyDescent="0.25">
-      <c r="E15" s="41" t="s">
+      <c r="E15" s="39" t="s">
         <v>14</v>
       </c>
       <c r="F15" s="76" t="s">
@@ -1683,7 +1688,7 @@
       <c r="P15" s="22"/>
     </row>
     <row r="16" spans="5:16" ht="63" x14ac:dyDescent="0.25">
-      <c r="E16" s="42"/>
+      <c r="E16" s="40"/>
       <c r="F16" s="77"/>
       <c r="G16" s="20" t="s">
         <v>53</v>
@@ -1705,7 +1710,7 @@
       <c r="P16" s="22"/>
     </row>
     <row r="17" spans="5:16" x14ac:dyDescent="0.25">
-      <c r="E17" s="42"/>
+      <c r="E17" s="40"/>
       <c r="F17" s="77"/>
       <c r="G17" s="17" t="s">
         <v>44</v>
@@ -1727,7 +1732,7 @@
       <c r="P17" s="22"/>
     </row>
     <row r="18" spans="5:16" x14ac:dyDescent="0.25">
-      <c r="E18" s="42"/>
+      <c r="E18" s="40"/>
       <c r="F18" s="77"/>
       <c r="G18" s="17" t="s">
         <v>54</v>
@@ -1749,7 +1754,7 @@
       <c r="P18" s="22"/>
     </row>
     <row r="19" spans="5:16" x14ac:dyDescent="0.25">
-      <c r="E19" s="42"/>
+      <c r="E19" s="40"/>
       <c r="F19" s="77"/>
       <c r="G19" s="17" t="s">
         <v>55</v>
@@ -1771,7 +1776,7 @@
       <c r="P19" s="22"/>
     </row>
     <row r="20" spans="5:16" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="E20" s="42"/>
+      <c r="E20" s="40"/>
       <c r="F20" s="78"/>
       <c r="G20" s="21" t="s">
         <v>56</v>
@@ -1793,8 +1798,8 @@
       <c r="P20" s="22"/>
     </row>
     <row r="21" spans="5:16" x14ac:dyDescent="0.25">
-      <c r="E21" s="42"/>
-      <c r="F21" s="38" t="s">
+      <c r="E21" s="40"/>
+      <c r="F21" s="36" t="s">
         <v>1</v>
       </c>
       <c r="G21" s="17" t="s">
@@ -1817,8 +1822,8 @@
       <c r="P21" s="22"/>
     </row>
     <row r="22" spans="5:16" x14ac:dyDescent="0.25">
-      <c r="E22" s="42"/>
-      <c r="F22" s="39"/>
+      <c r="E22" s="40"/>
+      <c r="F22" s="37"/>
       <c r="G22" s="29" t="s">
         <v>52</v>
       </c>
@@ -1839,8 +1844,8 @@
       <c r="P22" s="22"/>
     </row>
     <row r="23" spans="5:16" x14ac:dyDescent="0.25">
-      <c r="E23" s="43"/>
-      <c r="F23" s="44"/>
+      <c r="E23" s="41"/>
+      <c r="F23" s="38"/>
       <c r="G23" s="18"/>
       <c r="H23" s="19"/>
       <c r="I23" s="72"/>
@@ -1853,7 +1858,7 @@
       <c r="P23" s="22"/>
     </row>
     <row r="24" spans="5:16" x14ac:dyDescent="0.25">
-      <c r="E24" s="41" t="s">
+      <c r="E24" s="39" t="s">
         <v>15</v>
       </c>
       <c r="F24" s="63" t="s">
@@ -1873,7 +1878,7 @@
       <c r="P24" s="22"/>
     </row>
     <row r="25" spans="5:16" x14ac:dyDescent="0.25">
-      <c r="E25" s="42"/>
+      <c r="E25" s="40"/>
       <c r="F25" s="64"/>
       <c r="G25" s="18"/>
       <c r="H25" s="19"/>
@@ -1887,7 +1892,7 @@
       <c r="P25" s="22"/>
     </row>
     <row r="26" spans="5:16" x14ac:dyDescent="0.25">
-      <c r="E26" s="42"/>
+      <c r="E26" s="40"/>
       <c r="F26" s="65"/>
       <c r="G26" s="18"/>
       <c r="H26" s="19"/>
@@ -1901,8 +1906,8 @@
       <c r="P26" s="22"/>
     </row>
     <row r="27" spans="5:16" x14ac:dyDescent="0.25">
-      <c r="E27" s="42"/>
-      <c r="F27" s="38" t="s">
+      <c r="E27" s="40"/>
+      <c r="F27" s="36" t="s">
         <v>1</v>
       </c>
       <c r="G27" s="18"/>
@@ -1917,8 +1922,8 @@
       <c r="P27" s="22"/>
     </row>
     <row r="28" spans="5:16" x14ac:dyDescent="0.25">
-      <c r="E28" s="42"/>
-      <c r="F28" s="39"/>
+      <c r="E28" s="40"/>
+      <c r="F28" s="37"/>
       <c r="G28" s="18"/>
       <c r="H28" s="19"/>
       <c r="I28" s="70"/>
@@ -1931,8 +1936,8 @@
       <c r="P28" s="22"/>
     </row>
     <row r="29" spans="5:16" x14ac:dyDescent="0.25">
-      <c r="E29" s="43"/>
-      <c r="F29" s="44"/>
+      <c r="E29" s="41"/>
+      <c r="F29" s="38"/>
       <c r="G29" s="18"/>
       <c r="H29" s="19"/>
       <c r="I29" s="72"/>
@@ -1945,7 +1950,7 @@
       <c r="P29" s="22"/>
     </row>
     <row r="30" spans="5:16" x14ac:dyDescent="0.25">
-      <c r="E30" s="41" t="s">
+      <c r="E30" s="39" t="s">
         <v>16</v>
       </c>
       <c r="F30" s="63" t="s">
@@ -1953,7 +1958,9 @@
       </c>
       <c r="G30" s="18"/>
       <c r="H30" s="19"/>
-      <c r="I30" s="73"/>
+      <c r="I30" s="69" t="s">
+        <v>71</v>
+      </c>
       <c r="J30" s="30"/>
       <c r="K30" s="30"/>
       <c r="L30" s="30"/>
@@ -1963,11 +1970,11 @@
       <c r="P30" s="22"/>
     </row>
     <row r="31" spans="5:16" x14ac:dyDescent="0.25">
-      <c r="E31" s="42"/>
+      <c r="E31" s="40"/>
       <c r="F31" s="64"/>
       <c r="G31" s="18"/>
       <c r="H31" s="19"/>
-      <c r="I31" s="74"/>
+      <c r="I31" s="70"/>
       <c r="J31" s="30"/>
       <c r="K31" s="30"/>
       <c r="L31" s="30"/>
@@ -1977,11 +1984,11 @@
       <c r="P31" s="22"/>
     </row>
     <row r="32" spans="5:16" x14ac:dyDescent="0.25">
-      <c r="E32" s="42"/>
+      <c r="E32" s="40"/>
       <c r="F32" s="65"/>
       <c r="G32" s="18"/>
       <c r="H32" s="19"/>
-      <c r="I32" s="74"/>
+      <c r="I32" s="70"/>
       <c r="J32" s="30"/>
       <c r="K32" s="30"/>
       <c r="L32" s="30"/>
@@ -1991,13 +1998,13 @@
       <c r="P32" s="22"/>
     </row>
     <row r="33" spans="5:16" x14ac:dyDescent="0.25">
-      <c r="E33" s="42"/>
-      <c r="F33" s="38" t="s">
+      <c r="E33" s="40"/>
+      <c r="F33" s="36" t="s">
         <v>1</v>
       </c>
       <c r="G33" s="18"/>
       <c r="H33" s="19"/>
-      <c r="I33" s="74"/>
+      <c r="I33" s="70"/>
       <c r="J33" s="30"/>
       <c r="K33" s="30"/>
       <c r="L33" s="30"/>
@@ -2007,11 +2014,11 @@
       <c r="P33" s="22"/>
     </row>
     <row r="34" spans="5:16" x14ac:dyDescent="0.25">
-      <c r="E34" s="42"/>
-      <c r="F34" s="39"/>
+      <c r="E34" s="40"/>
+      <c r="F34" s="37"/>
       <c r="G34" s="18"/>
       <c r="H34" s="19"/>
-      <c r="I34" s="74"/>
+      <c r="I34" s="70"/>
       <c r="J34" s="30"/>
       <c r="K34" s="30"/>
       <c r="L34" s="30"/>
@@ -2021,11 +2028,11 @@
       <c r="P34" s="22"/>
     </row>
     <row r="35" spans="5:16" x14ac:dyDescent="0.25">
-      <c r="E35" s="43"/>
-      <c r="F35" s="44"/>
+      <c r="E35" s="41"/>
+      <c r="F35" s="38"/>
       <c r="G35" s="18"/>
       <c r="H35" s="19"/>
-      <c r="I35" s="75"/>
+      <c r="I35" s="72"/>
       <c r="J35" s="30"/>
       <c r="K35" s="30"/>
       <c r="L35" s="30"/>
@@ -2035,7 +2042,7 @@
       <c r="P35" s="22"/>
     </row>
     <row r="36" spans="5:16" x14ac:dyDescent="0.25">
-      <c r="E36" s="41" t="s">
+      <c r="E36" s="39" t="s">
         <v>17</v>
       </c>
       <c r="F36" s="63" t="s">
@@ -2053,7 +2060,7 @@
       <c r="P36" s="22"/>
     </row>
     <row r="37" spans="5:16" x14ac:dyDescent="0.25">
-      <c r="E37" s="42"/>
+      <c r="E37" s="40"/>
       <c r="F37" s="64"/>
       <c r="G37" s="18"/>
       <c r="H37" s="19"/>
@@ -2067,7 +2074,7 @@
       <c r="P37" s="22"/>
     </row>
     <row r="38" spans="5:16" x14ac:dyDescent="0.25">
-      <c r="E38" s="42"/>
+      <c r="E38" s="40"/>
       <c r="F38" s="65"/>
       <c r="G38" s="18"/>
       <c r="H38" s="19"/>
@@ -2081,8 +2088,8 @@
       <c r="P38" s="22"/>
     </row>
     <row r="39" spans="5:16" x14ac:dyDescent="0.25">
-      <c r="E39" s="42"/>
-      <c r="F39" s="38" t="s">
+      <c r="E39" s="40"/>
+      <c r="F39" s="36" t="s">
         <v>1</v>
       </c>
       <c r="G39" s="18"/>
@@ -2097,8 +2104,8 @@
       <c r="P39" s="22"/>
     </row>
     <row r="40" spans="5:16" x14ac:dyDescent="0.25">
-      <c r="E40" s="42"/>
-      <c r="F40" s="39"/>
+      <c r="E40" s="40"/>
+      <c r="F40" s="37"/>
       <c r="G40" s="18"/>
       <c r="H40" s="19"/>
       <c r="I40" s="74"/>
@@ -2111,8 +2118,8 @@
       <c r="P40" s="22"/>
     </row>
     <row r="41" spans="5:16" x14ac:dyDescent="0.25">
-      <c r="E41" s="43"/>
-      <c r="F41" s="44"/>
+      <c r="E41" s="41"/>
+      <c r="F41" s="38"/>
       <c r="G41" s="18"/>
       <c r="H41" s="19"/>
       <c r="I41" s="75"/>
@@ -2125,7 +2132,7 @@
       <c r="P41" s="22"/>
     </row>
     <row r="42" spans="5:16" x14ac:dyDescent="0.25">
-      <c r="E42" s="41" t="s">
+      <c r="E42" s="39" t="s">
         <v>18</v>
       </c>
       <c r="F42" s="63" t="s">
@@ -2143,7 +2150,7 @@
       <c r="P42" s="22"/>
     </row>
     <row r="43" spans="5:16" x14ac:dyDescent="0.25">
-      <c r="E43" s="42"/>
+      <c r="E43" s="40"/>
       <c r="F43" s="64"/>
       <c r="G43" s="18"/>
       <c r="H43" s="19"/>
@@ -2157,7 +2164,7 @@
       <c r="P43" s="22"/>
     </row>
     <row r="44" spans="5:16" x14ac:dyDescent="0.25">
-      <c r="E44" s="42"/>
+      <c r="E44" s="40"/>
       <c r="F44" s="65"/>
       <c r="G44" s="18"/>
       <c r="H44" s="19"/>
@@ -2171,8 +2178,8 @@
       <c r="P44" s="22"/>
     </row>
     <row r="45" spans="5:16" x14ac:dyDescent="0.25">
-      <c r="E45" s="42"/>
-      <c r="F45" s="38" t="s">
+      <c r="E45" s="40"/>
+      <c r="F45" s="36" t="s">
         <v>1</v>
       </c>
       <c r="G45" s="18"/>
@@ -2187,8 +2194,8 @@
       <c r="P45" s="22"/>
     </row>
     <row r="46" spans="5:16" x14ac:dyDescent="0.25">
-      <c r="E46" s="42"/>
-      <c r="F46" s="39"/>
+      <c r="E46" s="40"/>
+      <c r="F46" s="37"/>
       <c r="G46" s="18"/>
       <c r="H46" s="19"/>
       <c r="I46" s="74"/>
@@ -2201,8 +2208,8 @@
       <c r="P46" s="22"/>
     </row>
     <row r="47" spans="5:16" x14ac:dyDescent="0.25">
-      <c r="E47" s="43"/>
-      <c r="F47" s="44"/>
+      <c r="E47" s="41"/>
+      <c r="F47" s="38"/>
       <c r="G47" s="18"/>
       <c r="H47" s="19"/>
       <c r="I47" s="75"/>
@@ -2215,7 +2222,7 @@
       <c r="P47" s="22"/>
     </row>
     <row r="48" spans="5:16" x14ac:dyDescent="0.25">
-      <c r="E48" s="41" t="s">
+      <c r="E48" s="39" t="s">
         <v>19</v>
       </c>
       <c r="F48" s="63" t="s">
@@ -2233,7 +2240,7 @@
       <c r="P48" s="22"/>
     </row>
     <row r="49" spans="5:16" x14ac:dyDescent="0.25">
-      <c r="E49" s="42"/>
+      <c r="E49" s="40"/>
       <c r="F49" s="64"/>
       <c r="G49" s="18"/>
       <c r="H49" s="19"/>
@@ -2247,7 +2254,7 @@
       <c r="P49" s="22"/>
     </row>
     <row r="50" spans="5:16" x14ac:dyDescent="0.25">
-      <c r="E50" s="42"/>
+      <c r="E50" s="40"/>
       <c r="F50" s="65"/>
       <c r="G50" s="18"/>
       <c r="H50" s="19"/>
@@ -2261,8 +2268,8 @@
       <c r="P50" s="22"/>
     </row>
     <row r="51" spans="5:16" x14ac:dyDescent="0.25">
-      <c r="E51" s="42"/>
-      <c r="F51" s="38" t="s">
+      <c r="E51" s="40"/>
+      <c r="F51" s="36" t="s">
         <v>1</v>
       </c>
       <c r="G51" s="18"/>
@@ -2277,8 +2284,8 @@
       <c r="P51" s="22"/>
     </row>
     <row r="52" spans="5:16" x14ac:dyDescent="0.25">
-      <c r="E52" s="42"/>
-      <c r="F52" s="39"/>
+      <c r="E52" s="40"/>
+      <c r="F52" s="37"/>
       <c r="G52" s="18"/>
       <c r="H52" s="19"/>
       <c r="I52" s="74"/>
@@ -2291,8 +2298,8 @@
       <c r="P52" s="22"/>
     </row>
     <row r="53" spans="5:16" x14ac:dyDescent="0.25">
-      <c r="E53" s="43"/>
-      <c r="F53" s="44"/>
+      <c r="E53" s="41"/>
+      <c r="F53" s="38"/>
       <c r="G53" s="18"/>
       <c r="H53" s="19"/>
       <c r="I53" s="75"/>
@@ -2331,6 +2338,8 @@
     <mergeCell ref="E30:E35"/>
     <mergeCell ref="F30:F32"/>
     <mergeCell ref="F33:F35"/>
+    <mergeCell ref="F21:F23"/>
+    <mergeCell ref="E15:E23"/>
     <mergeCell ref="H3:H5"/>
     <mergeCell ref="E3:G5"/>
     <mergeCell ref="E2:L2"/>
@@ -2340,8 +2349,6 @@
     <mergeCell ref="L13:L14"/>
     <mergeCell ref="F12:F14"/>
     <mergeCell ref="E6:E14"/>
-    <mergeCell ref="F21:F23"/>
-    <mergeCell ref="E15:E23"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" copies="0" r:id="rId1"/>
